--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
   </si>
 </sst>
 </file>
@@ -723,6 +726,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,40 +771,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1084,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,43 +1115,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1193,58 +1196,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1269,24 +1272,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1295,7 +1298,9 @@
       <c r="B6" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -1319,16 +1324,28 @@
       <c r="L6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1342,7 +1359,9 @@
       <c r="B7" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -1370,16 +1389,28 @@
       <c r="L7" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1391,7 +1422,9 @@
       <c r="B8" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>46</v>
       </c>
@@ -1419,16 +1452,28 @@
       <c r="L8" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="4"/>
+      <c r="O8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1485,9 @@
       <c r="B9" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>46</v>
       </c>
@@ -1489,7 +1536,7 @@
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1501,7 +1548,9 @@
       <c r="B10" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>46</v>
       </c>
@@ -1525,16 +1574,28 @@
       <c r="L10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="53" t="s">
+        <v>81</v>
+      </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="4"/>
+      <c r="O10" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1563,7 +1624,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1653,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1623,7 +1684,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1652,7 +1713,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1742,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1771,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2231,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,7 +2359,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2362,7 +2423,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2944,10 +3005,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2976,8 +3037,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3003,8 +3064,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4291,6 +4352,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4301,16 +4372,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4353,43 +4414,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4434,58 +4495,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -4510,24 +4571,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4553,7 +4614,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="77" t="s">
+      <c r="V6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4584,7 +4645,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="78"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4613,7 +4674,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="78"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4703,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="78"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4671,7 +4732,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="78"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4700,7 +4761,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="78"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4790,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="77" t="s">
+      <c r="V12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4760,7 +4821,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="78"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4789,7 +4850,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="78"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4818,7 +4879,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="78"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4847,7 +4908,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="79"/>
+      <c r="V16" s="71"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6081,10 +6142,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="80" t="s">
+      <c r="V56" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="80">
+      <c r="W56" s="72">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6113,8 +6174,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
+      <c r="V57" s="73"/>
+      <c r="W57" s="73"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6140,8 +6201,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="82"/>
-      <c r="W58" s="82"/>
+      <c r="V58" s="74"/>
+      <c r="W58" s="74"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7428,6 +7489,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7438,16 +7509,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -5,28 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="TG102V" sheetId="30" r:id="rId1"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
+    <sheet name="TG102V" sheetId="27" r:id="rId2"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongHopThang!$S$1:$S$105</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -231,79 +234,148 @@
     <t>Khách hàng</t>
   </si>
   <si>
+    <t>sim</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
-    <t>Vinaphone</t>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Còn BH</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module GSM</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>Thay diode BC, nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14040</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+ FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Lắp đặt</t>
   </si>
   <si>
     <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 12 NĂM 2020</t>
   </si>
   <si>
-    <t>125.212.203.114,16767</t>
+    <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>05/12/2020</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector, không khởi động được</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng, nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,RTB,NCFW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Không sửa chữa thiết bị</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Không chốt GSM do khay Sim</t>
+  </si>
+  <si>
+    <t>Thay Khay Sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>PC + PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Sim hỏng</t>
   </si>
   <si>
     <t>Lock 125.212.203.114,16767</t>
   </si>
   <si>
-    <t>Danh</t>
-  </si>
-  <si>
-    <t>VI.2.00.---21.200630</t>
-  </si>
-  <si>
-    <t>BT</t>
-  </si>
-  <si>
-    <t>PC + PM</t>
-  </si>
-  <si>
-    <t>LK, NCFW</t>
-  </si>
-  <si>
-    <t>Lắp đặt</t>
-  </si>
-  <si>
-    <t>03/12/2020</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>VI.2.00.---19.200527</t>
   </si>
   <si>
-    <t>Sim hỏng</t>
-  </si>
-  <si>
-    <t>Thay Khay Sim, nâng cấp FW</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>W.2.00.---19.200527</t>
-  </si>
-  <si>
-    <t>Lock 125.212.203.114,16565</t>
-  </si>
-  <si>
-    <t>W.2.00.---21.200630</t>
-  </si>
-  <si>
-    <t>Không chốt GSM do khay Sim</t>
-  </si>
-  <si>
-    <t>125.212.203.114,16363</t>
-  </si>
-  <si>
-    <t>04/12/2020</t>
-  </si>
-  <si>
     <t>08/12/2020</t>
-  </si>
-  <si>
-    <t>Thể</t>
   </si>
   <si>
     <t>10/12/2020</t>
@@ -313,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,13 +453,21 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +484,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -526,10 +611,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,11 +794,14 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -720,8 +809,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,31 +830,52 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,44 +899,39 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1119,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1250,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="94" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1151,46 +1268,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="A1" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="71"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="101"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="85"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -1215,7 +1332,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="86"/>
+      <c r="I3" s="68"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1232,58 +1349,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="73" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1305,83 +1422,81 @@
       <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>860157040204783</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="51">
-        <v>868926033943041</v>
-      </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>85</v>
+      <c r="K6" s="52"/>
+      <c r="L6" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="76" t="s">
+      <c r="U6" s="64"/>
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1392,61 +1507,53 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>88</v>
+      <c r="B7" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>91</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="51">
-        <v>868345035622026</v>
-      </c>
-      <c r="F7" s="50" t="s">
+        <v>867717030421672</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>87</v>
-      </c>
       <c r="J7" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>85</v>
+        <v>94</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N7" s="54"/>
       <c r="O7" s="52" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="77"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1455,61 +1562,27 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="51">
-        <v>868926033950558</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R8" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="77"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1518,61 +1591,27 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="51">
-        <v>864811037178451</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T9" s="63"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1581,57 +1620,27 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="51">
-        <v>864811037229635</v>
-      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="50"/>
-      <c r="G10" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>81</v>
-      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
       <c r="N10" s="54"/>
-      <c r="O10" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="63"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="77"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1640,57 +1649,27 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="51">
-        <v>868926033921005</v>
-      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="50"/>
-      <c r="G11" s="50" t="s">
-        <v>66</v>
-      </c>
+      <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>81</v>
-      </c>
+      <c r="I11" s="70"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="54"/>
-      <c r="O11" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T11" s="63"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="77"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1699,57 +1678,27 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="56">
-        <v>864811037237554</v>
-      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="50"/>
-      <c r="G12" s="50" t="s">
-        <v>66</v>
-      </c>
+      <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P12" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R12" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="76" t="s">
+      <c r="I12" s="70"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1760,61 +1709,27 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="51">
-        <v>868926033973139</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R13" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1823,61 +1738,27 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="51">
-        <v>869627031751175</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R14" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T14" s="63"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="77"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1886,57 +1767,27 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="56">
-        <v>868926033916856</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="P15" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="R15" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T15" s="63"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="64"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1945,27 +1796,27 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="72"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="52"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="52"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="10"/>
+      <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="63"/>
+      <c r="T16" s="64"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1974,52 +1825,52 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="52"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="10"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="63"/>
+      <c r="T17" s="64"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="63"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="52"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="63"/>
+      <c r="T18" s="64"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -2028,25 +1879,25 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="88"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="63"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
         <v>39</v>
@@ -2055,29 +1906,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="88"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="63"/>
+      <c r="T20" s="64"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -2091,47 +1942,47 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="88"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="63"/>
+      <c r="T21" s="64"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="10"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -2141,29 +1992,29 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="63"/>
+      <c r="T22" s="64"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="10"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
@@ -2173,7 +2024,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="63"/>
+      <c r="T23" s="64"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -2182,15 +2033,15 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="10"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -2200,7 +2051,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="63"/>
+      <c r="T24" s="64"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -2209,25 +2060,25 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="10"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="1"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="63"/>
+      <c r="T25" s="64"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
         <v>54</v>
@@ -2247,7 +2098,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="90"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2258,7 +2109,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="63"/>
+      <c r="T26" s="64"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -2279,7 +2130,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="90"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2290,7 +2141,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="63"/>
+      <c r="T27" s="64"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -2311,7 +2162,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="88"/>
+      <c r="I28" s="72"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2322,7 +2173,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="63"/>
+      <c r="T28" s="64"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -2343,7 +2194,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="88"/>
+      <c r="I29" s="72"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2354,7 +2205,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="63"/>
+      <c r="T29" s="64"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -2375,7 +2226,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2386,7 +2237,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="63"/>
+      <c r="T30" s="64"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -2407,7 +2258,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="88"/>
+      <c r="I31" s="72"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2418,14 +2269,14 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="63"/>
+      <c r="T31" s="64"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2439,7 +2290,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="88"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2450,7 +2301,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="63"/>
+      <c r="T32" s="64"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -2471,7 +2322,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="88"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2482,7 +2333,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="63"/>
+      <c r="T33" s="64"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -2503,7 +2354,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="88"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2514,14 +2365,14 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="63"/>
+      <c r="T34" s="64"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2535,7 +2386,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="88"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2546,14 +2397,14 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="63"/>
+      <c r="T35" s="64"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2418,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="88"/>
+      <c r="I36" s="72"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2578,7 +2429,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="63"/>
+      <c r="T36" s="64"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -2599,7 +2450,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="88"/>
+      <c r="I37" s="72"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2610,14 +2461,14 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="63"/>
+      <c r="T37" s="64"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,7 +2482,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="88"/>
+      <c r="I38" s="72"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2642,7 +2493,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="63"/>
+      <c r="T38" s="64"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -2658,7 +2509,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="88"/>
+      <c r="I39" s="72"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2669,7 +2520,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="63"/>
+      <c r="T39" s="64"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -2685,7 +2536,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="88"/>
+      <c r="I40" s="72"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2696,7 +2547,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="63"/>
+      <c r="T40" s="64"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -2717,7 +2568,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="88"/>
+      <c r="I41" s="72"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2728,7 +2579,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="63"/>
+      <c r="T41" s="64"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -2749,7 +2600,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="88"/>
+      <c r="I42" s="72"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2760,7 +2611,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="63"/>
+      <c r="T42" s="64"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -2776,7 +2627,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="88"/>
+      <c r="I43" s="72"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2787,7 +2638,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="63"/>
+      <c r="T43" s="64"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -2803,7 +2654,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="88"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2834,7 +2685,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="88"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2866,7 +2717,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="88"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2884,7 +2735,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,7 +2749,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="88"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2930,7 +2781,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="88"/>
+      <c r="I48" s="72"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2948,7 +2799,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,7 +2813,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="88"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2989,12 +2840,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="62"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="91"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -3003,7 +2854,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="62"/>
+      <c r="R50" s="63"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -3026,7 +2877,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="88"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3058,7 +2909,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="92"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -3090,7 +2941,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="92"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -3122,7 +2973,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="93"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -3154,7 +3005,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="92"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -3186,7 +3037,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="92"/>
+      <c r="I56" s="76"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -3199,10 +3050,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3218,7 +3069,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="92"/>
+      <c r="I57" s="76"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -3231,8 +3082,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3245,7 +3096,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="92"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -3258,8 +3109,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3272,7 +3123,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="92"/>
+      <c r="I59" s="76"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -3299,7 +3150,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="92"/>
+      <c r="I60" s="76"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -3326,7 +3177,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="92"/>
+      <c r="I61" s="76"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -3358,7 +3209,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="92"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -3390,7 +3241,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="92"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -3417,7 +3268,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="92"/>
+      <c r="I64" s="76"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -3444,7 +3295,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="92"/>
+      <c r="I65" s="76"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -3471,7 +3322,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="92"/>
+      <c r="I66" s="76"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -3498,7 +3349,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="92"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -3528,7 +3379,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="92"/>
+      <c r="I68" s="76"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -3555,7 +3406,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="92"/>
+      <c r="I69" s="76"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -3582,7 +3433,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="92"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -3609,7 +3460,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="92"/>
+      <c r="I71" s="76"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -3636,7 +3487,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="92"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -3663,7 +3514,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="92"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -3690,7 +3541,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="92"/>
+      <c r="I74" s="76"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3717,7 +3568,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="92"/>
+      <c r="I75" s="76"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -3744,7 +3595,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="92"/>
+      <c r="I76" s="76"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3771,7 +3622,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="92"/>
+      <c r="I77" s="76"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3798,7 +3649,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="92"/>
+      <c r="I78" s="76"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3825,7 +3676,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="92"/>
+      <c r="I79" s="76"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -3852,7 +3703,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="92"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -3879,7 +3730,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="92"/>
+      <c r="I81" s="76"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -3906,7 +3757,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="92"/>
+      <c r="I82" s="76"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -3933,7 +3784,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="92"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -3960,7 +3811,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="92"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -3987,7 +3838,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="92"/>
+      <c r="I85" s="76"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -4014,7 +3865,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="92"/>
+      <c r="I86" s="76"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -4041,7 +3892,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="92"/>
+      <c r="I87" s="76"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -4068,7 +3919,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="92"/>
+      <c r="I88" s="76"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -4095,7 +3946,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="92"/>
+      <c r="I89" s="76"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -4122,7 +3973,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="92"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -4149,7 +4000,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="92"/>
+      <c r="I91" s="76"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -4176,7 +4027,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="92"/>
+      <c r="I92" s="76"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -4203,7 +4054,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="92"/>
+      <c r="I93" s="76"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -4230,7 +4081,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="92"/>
+      <c r="I94" s="76"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -4257,7 +4108,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="92"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -4284,7 +4135,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="92"/>
+      <c r="I96" s="76"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -4311,7 +4162,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="92"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -4338,7 +4189,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="92"/>
+      <c r="I98" s="76"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -4365,7 +4216,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="92"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -4392,7 +4243,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="92"/>
+      <c r="I100" s="76"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -4419,7 +4270,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="92"/>
+      <c r="I101" s="76"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4446,7 +4297,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="92"/>
+      <c r="I102" s="76"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -4473,7 +4324,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="92"/>
+      <c r="I103" s="76"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -4500,7 +4351,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="92"/>
+      <c r="I104" s="76"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -4527,7 +4378,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="92"/>
+      <c r="I105" s="76"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -4546,6 +4397,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4556,16 +4417,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4577,7 +4428,3640 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
+    <col min="10" max="10" width="53" style="21" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="21" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="22" style="21" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="21" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="21"/>
+    <col min="22" max="22" width="30.5703125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="21" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="101"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="102"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="95"/>
+      <c r="K5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="51">
+        <v>868345035590553</v>
+      </c>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="51">
+        <v>868926033993608</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T7" s="27"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="51">
+        <v>869696043497242</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T8" s="27"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="89"/>
+      <c r="W8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="51">
+        <v>868926033934461</v>
+      </c>
+      <c r="F9" s="66"/>
+      <c r="G9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="51">
+        <v>866192037816590</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868926033993533</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="70"/>
+      <c r="J11" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868926033943041</v>
+      </c>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868345035622026</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868926033950558</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="51">
+        <v>864811037178451</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T15" s="61"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="51">
+        <v>864811037229635</v>
+      </c>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T16" s="61"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="51">
+        <v>868926033921005</v>
+      </c>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="54"/>
+      <c r="O17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T17" s="61"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="56">
+        <v>864811037237554</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T18" s="61"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="51">
+        <v>868926033973139</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" s="61"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="51">
+        <v>869627031751175</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" s="61"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="56">
+        <v>868926033916856</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T21" s="61"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="61"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="61"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="61"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="61"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="61"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="10">
+        <f>SUM(W26:W36)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="61"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="61"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <v>45</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>49</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="10">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="10">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="91">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="38"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="38"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="10">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="10">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="38"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="38"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="38"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="38"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="37">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="38"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="38"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="38"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="38"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="38"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="38"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="38"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="38"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="38"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="38"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="38"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="38"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="38"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="38"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="38"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="38"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="38"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="38"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="38"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="38"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="38"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="38"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="38"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="38"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="38"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="38"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="38"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="38"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="38"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="38"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="38"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="38"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="38"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="38"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="47"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="38"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="38"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="47"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="38"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="38"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="48"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4608,43 +8092,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="A1" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="71"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="101"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4689,58 +8173,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="73" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4765,24 +8249,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4808,7 +8292,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4839,7 +8323,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4868,7 +8352,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4897,7 +8381,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4926,7 +8410,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4955,7 +8439,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4984,7 +8468,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5002,7 +8486,7 @@
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="58"/>
-      <c r="I13" s="65"/>
+      <c r="I13" s="70"/>
       <c r="J13" s="52"/>
       <c r="K13" s="55"/>
       <c r="L13" s="52"/>
@@ -5015,7 +8499,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5031,7 +8515,7 @@
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="65"/>
+      <c r="I14" s="70"/>
       <c r="J14" s="52"/>
       <c r="K14" s="1"/>
       <c r="L14" s="52"/>
@@ -5044,7 +8528,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5060,7 +8544,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
-      <c r="I15" s="65"/>
+      <c r="I15" s="70"/>
       <c r="J15" s="52"/>
       <c r="K15" s="55"/>
       <c r="L15" s="52"/>
@@ -5073,7 +8557,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5089,7 +8573,7 @@
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="65"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="52"/>
       <c r="K16" s="1"/>
       <c r="L16" s="52"/>
@@ -5102,7 +8586,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5118,7 +8602,7 @@
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="65"/>
+      <c r="I17" s="70"/>
       <c r="J17" s="52"/>
       <c r="K17" s="55"/>
       <c r="L17" s="52"/>
@@ -5145,7 +8629,7 @@
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="50"/>
-      <c r="I18" s="65"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="52"/>
       <c r="K18" s="55"/>
       <c r="L18" s="52"/>
@@ -5168,11 +8652,11 @@
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="61"/>
+      <c r="E19" s="65"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="65"/>
+      <c r="I19" s="70"/>
       <c r="J19" s="52"/>
       <c r="K19" s="1"/>
       <c r="L19" s="52"/>
@@ -5203,7 +8687,7 @@
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="65"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="52"/>
       <c r="K20" s="53"/>
       <c r="L20" s="1"/>
@@ -5235,7 +8719,7 @@
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="66"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="1"/>
       <c r="K21" s="52"/>
       <c r="L21" s="1"/>
@@ -5267,7 +8751,7 @@
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="66"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -5299,7 +8783,7 @@
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="65"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -5326,7 +8810,7 @@
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="65"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -5413,7 +8897,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="50"/>
       <c r="E27" s="51"/>
-      <c r="F27" s="64"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="52"/>
@@ -5448,7 +8932,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="65"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -6336,10 +9820,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6368,8 +9852,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6395,8 +9879,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7683,6 +11167,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7693,16 +11187,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -9,27 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
     <sheet name="TG102V" sheetId="27" r:id="rId2"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
+    <sheet name="TG102" sheetId="30" r:id="rId3"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TG102'!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102LE!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102V!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="117">
   <si>
     <t>STT</t>
   </si>
@@ -380,6 +383,12 @@
   <si>
     <t>10/12/2020</t>
   </si>
+  <si>
+    <t>19/12/2020</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -878,6 +887,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,34 +938,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1268,43 +1283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -1349,7 +1364,7 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -1369,16 +1384,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="95"/>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="95" t="s">
@@ -1387,7 +1402,7 @@
       <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
@@ -1400,7 +1415,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1432,13 +1447,13 @@
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="95"/>
-      <c r="P5" s="94"/>
+      <c r="P5" s="104"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="95"/>
@@ -1496,7 +1511,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="88" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1553,7 +1568,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="89"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1597,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="89"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +1626,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="89"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1640,7 +1655,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="89"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1669,7 +1684,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="89"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1698,7 +1713,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="88" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1729,7 +1744,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="89"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1773,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="89"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +1802,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="64"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1831,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="64"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3050,10 +3065,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="91" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="91">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3082,8 +3097,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3109,8 +3124,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4397,6 +4412,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4407,16 +4432,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4427,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4459,43 +4474,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -4540,7 +4555,7 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -4560,16 +4575,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="95"/>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="95" t="s">
@@ -4578,7 +4593,7 @@
       <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
@@ -4591,7 +4606,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4623,13 +4638,13 @@
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="95"/>
-      <c r="P5" s="94"/>
+      <c r="P5" s="104"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="95"/>
@@ -4685,7 +4700,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="61"/>
-      <c r="V6" s="88" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4746,7 +4761,7 @@
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="61"/>
-      <c r="V7" s="89"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4805,7 +4820,7 @@
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="61"/>
-      <c r="V8" s="89"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4864,7 +4879,7 @@
       </c>
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
-      <c r="V9" s="89"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4921,7 +4936,7 @@
       </c>
       <c r="T10" s="61"/>
       <c r="U10" s="61"/>
-      <c r="V10" s="89"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4982,7 +4997,7 @@
       </c>
       <c r="T11" s="61"/>
       <c r="U11" s="61"/>
-      <c r="V11" s="89"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5041,7 +5056,7 @@
       </c>
       <c r="T12" s="61"/>
       <c r="U12" s="61"/>
-      <c r="V12" s="88" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5106,7 +5121,7 @@
       </c>
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
-      <c r="V13" s="89"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5169,7 +5184,7 @@
       </c>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-      <c r="V14" s="89"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5232,7 +5247,7 @@
       </c>
       <c r="T15" s="61"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5291,7 +5306,7 @@
       </c>
       <c r="T16" s="61"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5607,12 +5622,20 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="51">
+        <v>868926033912269</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="74"/>
       <c r="J22" s="10"/>
@@ -5639,12 +5662,22 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="D23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="51">
+        <v>868926033944700</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="74"/>
       <c r="J23" s="10"/>
@@ -5666,12 +5699,20 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="51">
+        <v>868345035622000</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="H24" s="10"/>
       <c r="I24" s="74"/>
       <c r="J24" s="10"/>
@@ -5693,12 +5734,22 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="51">
+        <v>869627031758667</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="H25" s="10"/>
       <c r="I25" s="74"/>
       <c r="J25" s="10"/>
@@ -6432,7 +6483,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,10 +6734,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="91" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="91">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6715,8 +6766,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6742,8 +6793,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -8030,6 +8081,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8040,6 +8101,3163 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
+    <col min="10" max="10" width="53" style="21" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="21" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="21" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="21"/>
+    <col min="22" max="22" width="30.5703125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="21" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="93"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="94"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="95"/>
+      <c r="K5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="51">
+        <v>866762026950558</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="66"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="51">
+        <v>867330024399670</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="66"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="51">
+        <v>863306024480276</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="89"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="51">
+        <v>866762029013982</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="89"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="10">
+        <f>SUM(W26:W36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <v>45</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>49</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="10">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="10">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="101">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="38"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="38"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="10">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="10">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="38"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="38"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="38"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="38"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="37">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="38"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="38"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="38"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="38"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="38"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="38"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="38"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="38"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="38"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="38"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="38"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="38"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="38"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="38"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="38"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="38"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="38"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="38"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="38"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="38"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="38"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="38"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="38"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="38"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="38"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="38"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="38"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="38"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="38"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="38"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="38"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="38"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="38"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="38"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="47"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="38"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="38"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="47"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="38"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="38"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="48"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8050,13 +11268,23 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
@@ -8092,43 +11320,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -8173,7 +11401,7 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="95" t="s">
@@ -8193,16 +11421,16 @@
         <v>11</v>
       </c>
       <c r="L4" s="95"/>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="95" t="s">
@@ -8211,7 +11439,7 @@
       <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="105" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
@@ -8224,7 +11452,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -8256,13 +11484,13 @@
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="95"/>
-      <c r="P5" s="94"/>
+      <c r="P5" s="104"/>
       <c r="Q5" s="95"/>
       <c r="R5" s="95"/>
-      <c r="S5" s="97"/>
+      <c r="S5" s="106"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
       <c r="V5" s="95"/>
@@ -8292,7 +11520,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="88" t="s">
+      <c r="V6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8323,7 +11551,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="89"/>
+      <c r="V7" s="99"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8352,7 +11580,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="89"/>
+      <c r="V8" s="99"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8381,7 +11609,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="89"/>
+      <c r="V9" s="99"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8410,7 +11638,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="89"/>
+      <c r="V10" s="99"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8439,7 +11667,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="89"/>
+      <c r="V11" s="99"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8468,7 +11696,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="88" t="s">
+      <c r="V12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8499,7 +11727,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="89"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8528,7 +11756,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="89"/>
+      <c r="V14" s="99"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8557,7 +11785,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="89"/>
+      <c r="V15" s="99"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8586,7 +11814,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="90"/>
+      <c r="V16" s="100"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9820,10 +13048,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="91" t="s">
+      <c r="V56" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="91">
+      <c r="W56" s="101">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9852,8 +13080,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="V57" s="102"/>
+      <c r="W57" s="102"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9879,8 +13107,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11167,6 +14395,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11177,16 +14415,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -388,6 +388,48 @@
   </si>
   <si>
     <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00001.221117</t>
+  </si>
+  <si>
+    <t>Chập module GPS</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Không sáng led memory</t>
+  </si>
+  <si>
+    <t>Fomat lại thẻ nhớ</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Thay module GPS( Không sửa)</t>
   </si>
 </sst>
 </file>
@@ -4442,8 +4484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5637,17 +5679,35 @@
         <v>74</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="I22" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="3"/>
+      <c r="O22" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T22" s="61"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
@@ -5655,7 +5715,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5679,17 +5739,35 @@
         <v>74</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="I23" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T23" s="61"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
@@ -5714,17 +5792,35 @@
         <v>74</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="I24" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="3"/>
+      <c r="O24" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T24" s="61"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
@@ -5751,17 +5847,35 @@
         <v>74</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="I25" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="3"/>
+      <c r="O25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T25" s="61"/>
       <c r="U25" s="15"/>
       <c r="V25" s="57" t="s">
@@ -6088,7 +6202,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6152,7 +6266,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8331,7 +8445,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="51">
-        <v>866762026950558</v>
+        <v>864161025125324</v>
       </c>
       <c r="F6" s="50" t="s">
         <v>116</v>
@@ -8340,16 +8454,30 @@
         <v>74</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>125</v>
+      </c>
       <c r="L6" s="55"/>
-      <c r="M6" s="52"/>
+      <c r="M6" s="52" t="s">
+        <v>128</v>
+      </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="P6" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="89"/>
@@ -8381,16 +8509,28 @@
         <v>74</v>
       </c>
       <c r="H7" s="66"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="55"/>
+      <c r="I7" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>125</v>
+      </c>
       <c r="L7" s="55"/>
       <c r="M7" s="52"/>
       <c r="N7" s="54"/>
       <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="50"/>
+      <c r="P7" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="89"/>
@@ -8420,16 +8560,28 @@
         <v>74</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>125</v>
+      </c>
       <c r="L8" s="55"/>
       <c r="M8" s="52"/>
       <c r="N8" s="54"/>
       <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="50"/>
+      <c r="P8" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="89"/>
@@ -8459,16 +8611,32 @@
         <v>74</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
+      <c r="I9" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>123</v>
+      </c>
       <c r="L9" s="55"/>
-      <c r="M9" s="52"/>
+      <c r="M9" s="52" t="s">
+        <v>130</v>
+      </c>
       <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="O9" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="89"/>
       <c r="U9" s="89"/>
@@ -8796,7 +8964,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8828,7 +8996,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9041,7 +9209,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9169,7 +9337,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9297,7 +9465,7 @@
       </c>
       <c r="W36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9329,7 +9497,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9447,7 +9615,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10088,7 +10256,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -9,24 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="30" r:id="rId1"/>
-    <sheet name="TongHopThang" sheetId="22" r:id="rId2"/>
+    <sheet name="TG102LE" sheetId="31" r:id="rId2"/>
+    <sheet name="TongHopThang" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TG102LE!$S$1:$S$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TG102V!$S$1:$S$105</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TongHopThang!$S$1:$S$105</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">TG102LE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">TG102V!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">TongHopThang!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">TongHopThang!$S$4:$S$51</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -234,9 +237,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>Vinaphone</t>
-  </si>
-  <si>
     <t>XỬ LÝ THIẾT BỊ BẢO HÀNH THÁNG 12 NĂM 2020</t>
   </si>
   <si>
@@ -307,6 +307,42 @@
   </si>
   <si>
     <t>10/12/2020</t>
+  </si>
+  <si>
+    <t>P.Lắp đặt</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi cấu hình</t>
+  </si>
+  <si>
+    <t>MCH, NCFW</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>Thay trans kích PWK,nâng cấp FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
   </si>
 </sst>
 </file>
@@ -529,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,29 +768,38 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -777,41 +822,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1172,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="94" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1151,46 +1190,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="A1" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="71"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="85"/>
+      <c r="I2" s="70"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -1215,7 +1254,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="86"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1232,58 +1271,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="73" t="s">
+      <c r="W4" s="86" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1305,37 +1344,37 @@
       <c r="H5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="87" t="s">
+      <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>46</v>
@@ -1349,39 +1388,39 @@
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="R6" s="55" t="s">
-        <v>75</v>
-      </c>
       <c r="S6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1393,10 +1432,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>46</v>
@@ -1405,48 +1444,48 @@
         <v>868345035622026</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="I7" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="55" t="s">
-        <v>75</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1456,10 +1495,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>46</v>
@@ -1468,48 +1507,48 @@
         <v>868926033950558</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="R8" s="55" t="s">
-        <v>75</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1519,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>46</v>
@@ -1531,48 +1570,48 @@
         <v>864811037178451</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="55" t="s">
-        <v>75</v>
-      </c>
       <c r="S9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1582,10 +1621,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>46</v>
@@ -1599,39 +1638,39 @@
       </c>
       <c r="H10" s="64"/>
       <c r="I10" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="55" t="s">
-        <v>75</v>
-      </c>
       <c r="S10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1641,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>46</v>
@@ -1658,39 +1697,39 @@
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>85</v>
-      </c>
       <c r="M11" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="R11" s="50" t="s">
-        <v>75</v>
-      </c>
       <c r="S11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1700,10 +1739,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>46</v>
@@ -1717,39 +1756,39 @@
       </c>
       <c r="H12" s="50"/>
       <c r="I12" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="R12" s="50" t="s">
-        <v>75</v>
-      </c>
       <c r="S12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1761,10 +1800,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>46</v>
@@ -1773,48 +1812,48 @@
         <v>868926033973139</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H13" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="R13" s="50" t="s">
-        <v>75</v>
-      </c>
       <c r="S13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1824,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>46</v>
@@ -1836,48 +1875,48 @@
         <v>869627031751175</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="50" t="s">
         <v>66</v>
       </c>
       <c r="H14" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="52" t="s">
         <v>80</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="50" t="s">
-        <v>75</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1887,10 +1926,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>46</v>
@@ -1904,39 +1943,39 @@
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K15" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P15" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="50" t="s">
-        <v>75</v>
-      </c>
       <c r="S15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1945,27 +1984,57 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="B16" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C16" s="49">
+        <v>44182</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868926033921286</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="I16" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1974,24 +2043,54 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="B17" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C17" s="49">
+        <v>44182</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="51">
+        <v>868926033958817</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="I17" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="3"/>
+      <c r="O17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T17" s="63"/>
       <c r="U17" s="15"/>
       <c r="V17" s="63"/>
@@ -2001,24 +2100,54 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="B18" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C18" s="49">
+        <v>44182</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="51">
+        <v>868926033932523</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="I18" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="N18" s="14"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="3"/>
+      <c r="O18" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T18" s="63"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -2028,24 +2157,54 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C19" s="49">
+        <v>44182</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="51">
+        <v>868926033972750</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="I19" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="3"/>
+      <c r="O19" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="T19" s="63"/>
       <c r="U19" s="15"/>
       <c r="V19" s="57" t="s">
@@ -2055,7 +2214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
@@ -2066,7 +2225,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="88"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2098,7 +2257,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="88"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -2130,7 +2289,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="90"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2162,7 +2321,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="90"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2189,7 +2348,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="90"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2216,7 +2375,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="90"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2247,7 +2406,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="90"/>
+      <c r="I26" s="74"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2279,7 +2438,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="90"/>
+      <c r="I27" s="74"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2311,7 +2470,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="88"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2343,7 +2502,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="88"/>
+      <c r="I29" s="73"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2375,7 +2534,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="88"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2407,7 +2566,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="88"/>
+      <c r="I31" s="73"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2425,7 +2584,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2439,7 +2598,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="88"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2457,7 +2616,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,7 +2630,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="88"/>
+      <c r="I33" s="73"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2503,7 +2662,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="88"/>
+      <c r="I34" s="73"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2535,7 +2694,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="88"/>
+      <c r="I35" s="73"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2553,7 +2712,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,7 +2726,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="88"/>
+      <c r="I36" s="73"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2599,7 +2758,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="88"/>
+      <c r="I37" s="73"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2617,7 +2776,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,7 +2790,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="88"/>
+      <c r="I38" s="73"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2658,7 +2817,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="88"/>
+      <c r="I39" s="73"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2685,7 +2844,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="88"/>
+      <c r="I40" s="73"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2717,7 +2876,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="88"/>
+      <c r="I41" s="73"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2749,7 +2908,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="88"/>
+      <c r="I42" s="73"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2776,7 +2935,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="88"/>
+      <c r="I43" s="73"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2803,7 +2962,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="88"/>
+      <c r="I44" s="73"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2834,7 +2993,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="88"/>
+      <c r="I45" s="73"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2866,7 +3025,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="88"/>
+      <c r="I46" s="73"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2898,7 +3057,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="88"/>
+      <c r="I47" s="73"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2930,7 +3089,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="88"/>
+      <c r="I48" s="73"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2948,7 +3107,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,7 +3121,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="88"/>
+      <c r="I49" s="73"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2994,7 +3153,7 @@
       <c r="F50" s="62"/>
       <c r="G50" s="62"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="91"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -3026,7 +3185,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="88"/>
+      <c r="I51" s="73"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3058,7 +3217,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="92"/>
+      <c r="I52" s="76"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -3090,7 +3249,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="92"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -3122,7 +3281,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="93"/>
+      <c r="I54" s="77"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -3154,7 +3313,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="92"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -3186,7 +3345,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="92"/>
+      <c r="I56" s="76"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -3199,10 +3358,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="82">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3218,7 +3377,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="92"/>
+      <c r="I57" s="76"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -3231,8 +3390,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3245,7 +3404,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="92"/>
+      <c r="I58" s="76"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -3258,8 +3417,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3272,7 +3431,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="92"/>
+      <c r="I59" s="76"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -3299,7 +3458,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="92"/>
+      <c r="I60" s="76"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -3326,7 +3485,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="92"/>
+      <c r="I61" s="76"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -3358,7 +3517,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="92"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -3390,7 +3549,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="92"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -3417,7 +3576,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="92"/>
+      <c r="I64" s="76"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -3444,7 +3603,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="92"/>
+      <c r="I65" s="76"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -3471,7 +3630,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="92"/>
+      <c r="I66" s="76"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -3498,7 +3657,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="92"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -3528,7 +3687,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="92"/>
+      <c r="I68" s="76"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -3555,7 +3714,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="92"/>
+      <c r="I69" s="76"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -3582,7 +3741,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="92"/>
+      <c r="I70" s="76"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -3609,7 +3768,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="92"/>
+      <c r="I71" s="76"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -3636,7 +3795,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="92"/>
+      <c r="I72" s="76"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -3663,7 +3822,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="92"/>
+      <c r="I73" s="76"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -3690,7 +3849,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="92"/>
+      <c r="I74" s="76"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3717,7 +3876,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="92"/>
+      <c r="I75" s="76"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -3744,7 +3903,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="92"/>
+      <c r="I76" s="76"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3771,7 +3930,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="92"/>
+      <c r="I77" s="76"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3798,7 +3957,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="92"/>
+      <c r="I78" s="76"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3825,7 +3984,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="92"/>
+      <c r="I79" s="76"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -3852,7 +4011,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="92"/>
+      <c r="I80" s="76"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -3879,7 +4038,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="92"/>
+      <c r="I81" s="76"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -3906,7 +4065,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="92"/>
+      <c r="I82" s="76"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -3933,7 +4092,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="92"/>
+      <c r="I83" s="76"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -3960,7 +4119,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="92"/>
+      <c r="I84" s="76"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -3987,7 +4146,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="92"/>
+      <c r="I85" s="76"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -4014,7 +4173,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="92"/>
+      <c r="I86" s="76"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -4041,7 +4200,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="92"/>
+      <c r="I87" s="76"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -4068,7 +4227,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="92"/>
+      <c r="I88" s="76"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -4095,7 +4254,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="92"/>
+      <c r="I89" s="76"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -4122,7 +4281,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="92"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -4149,7 +4308,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="92"/>
+      <c r="I91" s="76"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -4176,7 +4335,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="92"/>
+      <c r="I92" s="76"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -4203,7 +4362,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="92"/>
+      <c r="I93" s="76"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -4230,7 +4389,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="92"/>
+      <c r="I94" s="76"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -4257,7 +4416,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="92"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -4284,7 +4443,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="92"/>
+      <c r="I96" s="76"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -4311,7 +4470,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="92"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -4338,7 +4497,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="92"/>
+      <c r="I98" s="76"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -4365,7 +4524,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="92"/>
+      <c r="I99" s="76"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -4392,7 +4551,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="92"/>
+      <c r="I100" s="76"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -4419,7 +4578,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="92"/>
+      <c r="I101" s="76"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4446,7 +4605,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="92"/>
+      <c r="I102" s="76"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -4473,7 +4632,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="92"/>
+      <c r="I103" s="76"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -4500,7 +4659,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="92"/>
+      <c r="I104" s="76"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -4527,7 +4686,3170 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="92"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="35"/>
+      <c r="N105" s="35"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
+      <c r="Q105" s="35"/>
+      <c r="R105" s="35"/>
+      <c r="S105" s="35"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="48"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="S1:S105"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
+    <col min="10" max="10" width="53" style="21" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="58" style="21" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="21" customWidth="1"/>
+    <col min="19" max="20" width="26.85546875" style="21" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="21"/>
+    <col min="22" max="22" width="30.5703125" style="21" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" style="21" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="92"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
+      <c r="B5" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="86"/>
+      <c r="K5" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="49">
+        <v>44182</v>
+      </c>
+      <c r="C6" s="49">
+        <v>44182</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>867857039922708</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="54"/>
+      <c r="O6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="80"/>
+      <c r="W7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" s="10">
+        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="68"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="10">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" s="10">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W30" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" s="10">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W32" s="10">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="10">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="10">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="10">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" s="10">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" s="10">
+        <f>SUM(W26:W36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="17"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="17"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W40" s="10">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="10">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="17"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="17"/>
+    </row>
+    <row r="44" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="W45" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102E")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="73"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007X")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="73"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="45"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W49" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="31">
+        <v>45</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W50" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007S")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG007")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="W52" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W53" s="10">
+        <f>COUNTIF($D$6:$D$105,"TG102A")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>49</v>
+      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W54" s="10">
+        <f>COUNTIF($D$6:$D$105,"NSHD")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="10">
+        <f>COUNTIF($D$6:$D$105,"CBN")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="82">
+        <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
+    </row>
+    <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
+    </row>
+    <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="38"/>
+    </row>
+    <row r="60" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="38"/>
+    </row>
+    <row r="61" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W61" s="10">
+        <f>COUNTIF($O$6:$O$105,"*DM*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="W62" s="10">
+        <f>COUNTIF($O$6:$O$105,"*KS*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="38"/>
+    </row>
+    <row r="64" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="45"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="38"/>
+    </row>
+    <row r="65" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="38"/>
+    </row>
+    <row r="66" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="38"/>
+    </row>
+    <row r="67" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="37">
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="38"/>
+    </row>
+    <row r="68" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="38"/>
+    </row>
+    <row r="69" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="38"/>
+    </row>
+    <row r="70" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="38"/>
+    </row>
+    <row r="71" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="76"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
+      <c r="Q71" s="35"/>
+      <c r="R71" s="35"/>
+      <c r="S71" s="35"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="38"/>
+    </row>
+    <row r="72" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="76"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
+      <c r="Q72" s="35"/>
+      <c r="R72" s="35"/>
+      <c r="S72" s="35"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="38"/>
+    </row>
+    <row r="73" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="76"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="38"/>
+    </row>
+    <row r="74" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="76"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="35"/>
+      <c r="T74" s="45"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="38"/>
+    </row>
+    <row r="75" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="38"/>
+    </row>
+    <row r="76" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="45"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="38"/>
+    </row>
+    <row r="77" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="76"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="35"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
+      <c r="Q77" s="35"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="35"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="38"/>
+    </row>
+    <row r="78" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="35"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="35"/>
+      <c r="N78" s="35"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
+      <c r="Q78" s="35"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="35"/>
+      <c r="T78" s="45"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="38"/>
+    </row>
+    <row r="79" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="35"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
+      <c r="Q79" s="35"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="35"/>
+      <c r="T79" s="45"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="38"/>
+    </row>
+    <row r="80" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="35"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
+      <c r="Q80" s="35"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="35"/>
+      <c r="T80" s="45"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="38"/>
+    </row>
+    <row r="81" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="45"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="38"/>
+    </row>
+    <row r="82" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="45"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="38"/>
+    </row>
+    <row r="83" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="76"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="45"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="38"/>
+    </row>
+    <row r="84" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="35"/>
+      <c r="N84" s="35"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
+      <c r="Q84" s="35"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="35"/>
+      <c r="T84" s="45"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="38"/>
+    </row>
+    <row r="85" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="35"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="35"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
+      <c r="Q85" s="35"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="35"/>
+      <c r="T85" s="45"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="38"/>
+    </row>
+    <row r="86" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="38"/>
+    </row>
+    <row r="87" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="76"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="38"/>
+    </row>
+    <row r="88" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="76"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="38"/>
+    </row>
+    <row r="89" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="76"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="38"/>
+    </row>
+    <row r="90" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="38"/>
+    </row>
+    <row r="91" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="76"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="38"/>
+    </row>
+    <row r="92" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="38"/>
+    </row>
+    <row r="93" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="76"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="38"/>
+    </row>
+    <row r="94" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="38"/>
+    </row>
+    <row r="95" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="38"/>
+    </row>
+    <row r="96" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="35"/>
+      <c r="N96" s="35"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
+      <c r="Q96" s="35"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="35"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="38"/>
+    </row>
+    <row r="97" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="35"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="35"/>
+      <c r="N97" s="35"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
+      <c r="Q97" s="35"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="35"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="38"/>
+    </row>
+    <row r="98" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="35"/>
+      <c r="N98" s="35"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
+      <c r="Q98" s="35"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="35"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="38"/>
+    </row>
+    <row r="99" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="35"/>
+      <c r="N99" s="35"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
+      <c r="Q99" s="35"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="35"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="38"/>
+    </row>
+    <row r="100" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="35"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
+      <c r="Q100" s="35"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="35"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="37"/>
+      <c r="W100" s="38"/>
+    </row>
+    <row r="101" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="35"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
+      <c r="Q101" s="35"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="35"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="47"/>
+      <c r="V101" s="37"/>
+      <c r="W101" s="38"/>
+    </row>
+    <row r="102" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="35"/>
+      <c r="N102" s="35"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
+      <c r="Q102" s="35"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="35"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="37"/>
+      <c r="W102" s="38"/>
+    </row>
+    <row r="103" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="35"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="47"/>
+      <c r="V103" s="37"/>
+      <c r="W103" s="38"/>
+    </row>
+    <row r="104" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="76"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="35"/>
+      <c r="N104" s="35"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
+      <c r="Q104" s="35"/>
+      <c r="R104" s="35"/>
+      <c r="S104" s="35"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="37"/>
+      <c r="W104" s="38"/>
+    </row>
+    <row r="105" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="76"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -4572,12 +7894,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4608,43 +7930,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
+      <c r="A1" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="71"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -4689,58 +8011,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="87" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="73" t="s">
+      <c r="W4" s="86" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -4765,24 +8087,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="88"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4808,7 +8130,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4839,7 +8161,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="77"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4868,7 +8190,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="77"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4897,7 +8219,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="77"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4926,7 +8248,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="77"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4955,7 +8277,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="77"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4984,7 +8306,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="76" t="s">
+      <c r="V12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5015,7 +8337,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="77"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5044,7 +8366,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="77"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5073,7 +8395,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="77"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5102,7 +8424,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="78"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6336,10 +9658,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="79" t="s">
+      <c r="V56" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="79">
+      <c r="W56" s="82">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6368,8 +9690,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="80"/>
-      <c r="W57" s="80"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6395,8 +9717,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="81"/>
-      <c r="W58" s="81"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7683,6 +11005,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7693,16 +11025,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -431,6 +431,12 @@
   <si>
     <t>Thay module GPS( Không sửa)</t>
   </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>giữ lại bóc linh kiện</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +524,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -666,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -935,30 +947,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,10 +968,55 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,43 +1358,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -1406,58 +1439,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1482,24 +1515,24 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1553,7 +1586,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1610,7 +1643,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1672,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1701,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1697,7 +1730,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1726,7 +1759,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1755,7 +1788,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1786,7 +1819,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1815,7 +1848,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1844,7 +1877,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="64"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1873,7 +1906,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="64"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3107,10 +3140,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3139,8 +3172,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3166,8 +3199,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4454,6 +4487,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4464,16 +4507,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4484,8 +4517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4516,43 +4549,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -4597,58 +4630,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4673,24 +4706,24 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4742,7 +4775,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="61"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4803,7 +4836,7 @@
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="61"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4862,7 +4895,7 @@
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="61"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4921,7 +4954,7 @@
       </c>
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4978,7 +5011,7 @@
       </c>
       <c r="T10" s="61"/>
       <c r="U10" s="61"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5039,7 +5072,7 @@
       </c>
       <c r="T11" s="61"/>
       <c r="U11" s="61"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5098,7 +5131,7 @@
       </c>
       <c r="T12" s="61"/>
       <c r="U12" s="61"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5163,7 +5196,7 @@
       </c>
       <c r="T13" s="61"/>
       <c r="U13" s="61"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5226,7 +5259,7 @@
       </c>
       <c r="T14" s="61"/>
       <c r="U14" s="61"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5289,7 +5322,7 @@
       </c>
       <c r="T15" s="61"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5348,7 +5381,7 @@
       </c>
       <c r="T16" s="61"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5667,7 +5700,9 @@
       <c r="B22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D22" s="50" t="s">
         <v>46</v>
       </c>
@@ -5688,7 +5723,9 @@
       <c r="K22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="M22" s="10" t="s">
         <v>121</v>
       </c>
@@ -5725,7 +5762,9 @@
       <c r="B23" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D23" s="50" t="s">
         <v>46</v>
       </c>
@@ -5748,7 +5787,9 @@
       <c r="K23" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="10"/>
+      <c r="L23" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="M23" s="10" t="s">
         <v>121</v>
       </c>
@@ -5780,7 +5821,9 @@
       <c r="B24" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D24" s="50" t="s">
         <v>46</v>
       </c>
@@ -5801,7 +5844,9 @@
       <c r="K24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L24" s="10"/>
+      <c r="L24" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="M24" s="10" t="s">
         <v>121</v>
       </c>
@@ -5833,7 +5878,9 @@
       <c r="B25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D25" s="50" t="s">
         <v>46</v>
       </c>
@@ -5856,7 +5903,9 @@
       <c r="K25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="M25" s="10" t="s">
         <v>121</v>
       </c>
@@ -6848,10 +6897,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6880,8 +6929,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6907,8 +6956,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -8195,6 +8244,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8205,16 +8264,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8225,8 +8274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8257,43 +8306,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="67"/>
@@ -8338,58 +8387,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8414,24 +8463,24 @@
       <c r="I5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8440,7 +8489,9 @@
       <c r="B6" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="79" t="s">
+        <v>131</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>51</v>
       </c>
@@ -8481,7 +8532,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="89"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8495,7 +8546,9 @@
       <c r="B7" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="79" t="s">
+        <v>131</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>51</v>
       </c>
@@ -8534,7 +8587,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="89"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8546,7 +8599,9 @@
       <c r="B8" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="79" t="s">
+        <v>131</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>51</v>
       </c>
@@ -8585,62 +8640,64 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="89"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="107">
         <v>4</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="110">
         <v>866762029013982</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="70" t="s">
+      <c r="H9" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="109" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="52" t="s">
+      <c r="L9" s="109"/>
+      <c r="M9" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52" t="s">
+      <c r="N9" s="112"/>
+      <c r="O9" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="52" t="s">
+      <c r="P9" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="50" t="s">
+      <c r="R9" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="107"/>
       <c r="T9" s="89"/>
       <c r="U9" s="89"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8669,7 +8726,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="89"/>
       <c r="U10" s="89"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8698,7 +8755,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="89"/>
       <c r="U11" s="89"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8727,7 +8784,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="89"/>
       <c r="U12" s="89"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8758,7 +8815,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8787,7 +8844,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="89"/>
       <c r="U14" s="89"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8816,7 +8873,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="89"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8845,7 +8902,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="89"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10079,10 +10136,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10111,8 +10168,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -10138,8 +10195,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11426,6 +11483,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11436,16 +11503,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11488,43 +11545,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11569,58 +11626,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="105" t="s">
+      <c r="S4" s="98" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="97" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11645,24 +11702,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="95"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="95"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11688,7 +11745,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="90" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11719,7 +11776,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="99"/>
+      <c r="V7" s="91"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11748,7 +11805,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="99"/>
+      <c r="V8" s="91"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11777,7 +11834,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="99"/>
+      <c r="V9" s="91"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11806,7 +11863,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="99"/>
+      <c r="V10" s="91"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11835,7 +11892,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="99"/>
+      <c r="V11" s="91"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11864,7 +11921,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="98" t="s">
+      <c r="V12" s="90" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11895,7 +11952,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="99"/>
+      <c r="V13" s="91"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11924,7 +11981,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="99"/>
+      <c r="V14" s="91"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11953,7 +12010,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="99"/>
+      <c r="V15" s="91"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11982,7 +12039,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="100"/>
+      <c r="V16" s="92"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13216,10 +13273,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="101" t="s">
+      <c r="V56" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="101">
+      <c r="W56" s="93">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13248,8 +13305,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="102"/>
-      <c r="W57" s="102"/>
+      <c r="V57" s="94"/>
+      <c r="W57" s="94"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -13275,8 +13332,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="103"/>
+      <c r="V58" s="95"/>
+      <c r="W58" s="95"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14563,6 +14620,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14573,16 +14640,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -442,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,14 +517,8 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,12 +540,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -678,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -836,9 +824,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,15 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,6 +923,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,56 +968,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1326,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1301,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -1358,46 +1319,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -1422,7 +1383,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1439,109 +1400,109 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -1556,21 +1517,21 @@
       <c r="G6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="70" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>88</v>
       </c>
       <c r="K6" s="52"/>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>73</v>
       </c>
       <c r="M6" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="52" t="s">
         <v>70</v>
       </c>
@@ -1585,8 +1546,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="90" t="s">
+      <c r="U6" s="60"/>
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1597,10 +1558,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="75" t="s">
         <v>91</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -1613,21 +1574,21 @@
       <c r="G7" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="70" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55" t="s">
+      <c r="K7" s="54"/>
+      <c r="L7" s="54" t="s">
         <v>73</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="52" t="s">
         <v>70</v>
       </c>
@@ -1642,8 +1603,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="91"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1652,27 +1613,27 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="50"/>
       <c r="E8" s="51"/>
-      <c r="F8" s="80"/>
+      <c r="F8" s="76"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-      <c r="I8" s="70"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="50"/>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="91"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1681,27 +1642,27 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="66"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
-      <c r="I9" s="70"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="50"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="91"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1710,27 +1671,27 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="50"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="91"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1739,27 +1700,27 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="91"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1768,27 +1729,27 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="70"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="90" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1799,27 +1760,27 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
-      <c r="F13" s="66"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="81"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="55"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="85"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="91"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1828,27 +1789,27 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="55"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="91"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1857,27 +1818,27 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="71"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="64"/>
+      <c r="T15" s="60"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1886,27 +1847,27 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="80"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="72"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="64"/>
+      <c r="T16" s="60"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1915,41 +1876,41 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="73"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="55"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="85"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="64"/>
+      <c r="T17" s="60"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="60"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="72"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1960,7 +1921,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="64"/>
+      <c r="T18" s="60"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -1969,14 +1930,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1987,9 +1948,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="64"/>
+      <c r="T19" s="60"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="18" t="s">
@@ -2000,14 +1961,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="50"/>
       <c r="E20" s="51"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="72"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -2018,7 +1979,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="64"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -2032,14 +1993,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="74"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -2050,7 +2011,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="64"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -2064,14 +2025,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -2082,7 +2043,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="64"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -2096,14 +2057,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="74"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -2114,7 +2075,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="64"/>
+      <c r="T23" s="60"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -2123,14 +2084,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -2141,7 +2102,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="64"/>
+      <c r="T24" s="60"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -2150,14 +2111,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -2168,9 +2129,9 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="64"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -2188,7 +2149,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -2199,7 +2160,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="64"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -2220,7 +2181,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="74"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -2231,7 +2192,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="64"/>
+      <c r="T27" s="60"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -2252,7 +2213,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="72"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2263,7 +2224,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="64"/>
+      <c r="T28" s="60"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -2284,7 +2245,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -2295,7 +2256,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="64"/>
+      <c r="T29" s="60"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -2316,7 +2277,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="72"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -2327,7 +2288,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="64"/>
+      <c r="T30" s="60"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -2348,7 +2309,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2359,7 +2320,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="64"/>
+      <c r="T31" s="60"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -2380,7 +2341,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="72"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2391,7 +2352,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="64"/>
+      <c r="T32" s="60"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -2412,7 +2373,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2423,7 +2384,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="64"/>
+      <c r="T33" s="60"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -2444,7 +2405,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="72"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2455,7 +2416,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="64"/>
+      <c r="T34" s="60"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -2476,7 +2437,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2487,7 +2448,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="64"/>
+      <c r="T35" s="60"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -2508,7 +2469,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="72"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2519,7 +2480,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="64"/>
+      <c r="T36" s="60"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -2540,7 +2501,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="72"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2551,7 +2512,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="64"/>
+      <c r="T37" s="60"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -2572,7 +2533,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="72"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2583,7 +2544,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="64"/>
+      <c r="T38" s="60"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -2599,7 +2560,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="72"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2610,7 +2571,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="64"/>
+      <c r="T39" s="60"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -2626,7 +2587,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="72"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2637,7 +2598,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="64"/>
+      <c r="T40" s="60"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -2658,7 +2619,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="72"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2669,7 +2630,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="64"/>
+      <c r="T41" s="60"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -2690,7 +2651,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="72"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2701,7 +2662,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="64"/>
+      <c r="T42" s="60"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -2717,7 +2678,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="72"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2728,7 +2689,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="64"/>
+      <c r="T43" s="60"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -2744,7 +2705,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="72"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2757,10 +2718,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2775,7 +2736,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="72"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2807,7 +2768,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="72"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2839,7 +2800,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="72"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2871,7 +2832,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="72"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2903,7 +2864,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="72"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2930,12 +2891,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="63"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="75"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -2944,7 +2905,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="63"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -2967,7 +2928,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="72"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2999,7 +2960,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="76"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -3031,7 +2992,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="76"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -3063,7 +3024,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="77"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -3095,7 +3056,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="76"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -3127,7 +3088,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="76"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -3140,10 +3101,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3159,7 +3120,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="76"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -3172,8 +3133,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3186,7 +3147,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="76"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -3199,8 +3160,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -3213,7 +3174,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="76"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -3240,7 +3201,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="76"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -3267,7 +3228,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="76"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -3299,7 +3260,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="76"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -3331,7 +3292,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="76"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -3358,7 +3319,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="76"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -3385,7 +3346,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="76"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -3412,7 +3373,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="76"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -3439,7 +3400,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="76"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -3469,7 +3430,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="76"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -3496,7 +3457,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="76"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -3523,7 +3484,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="76"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -3550,7 +3511,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="76"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -3577,7 +3538,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="76"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -3604,7 +3565,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="76"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -3631,7 +3592,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="76"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3658,7 +3619,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="76"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -3685,7 +3646,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="76"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3712,7 +3673,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="76"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3739,7 +3700,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="76"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3766,7 +3727,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="76"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -3793,7 +3754,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="76"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -3820,7 +3781,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="76"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -3847,7 +3808,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="76"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -3874,7 +3835,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="76"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -3901,7 +3862,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="76"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -3928,7 +3889,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="76"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -3955,7 +3916,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="76"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -3982,7 +3943,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="76"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -4009,7 +3970,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="76"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -4036,7 +3997,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="76"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -4063,7 +4024,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="76"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -4090,7 +4051,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="76"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -4117,7 +4078,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="76"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -4144,7 +4105,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="76"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -4171,7 +4132,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="76"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -4198,7 +4159,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="76"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -4225,7 +4186,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="76"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -4252,7 +4213,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="76"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -4279,7 +4240,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="76"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -4306,7 +4267,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="76"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -4333,7 +4294,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="76"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -4360,7 +4321,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="76"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4387,7 +4348,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="76"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -4414,7 +4375,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="76"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -4441,7 +4402,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="76"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -4468,7 +4429,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="76"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -4487,6 +4448,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4497,16 +4468,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4517,8 +4478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4531,7 +4492,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -4549,46 +4510,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -4613,7 +4574,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -4630,109 +4591,109 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -4745,8 +4706,8 @@
       <c r="G6" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="70" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J6" s="52" t="s">
@@ -4755,11 +4716,11 @@
       <c r="K6" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="52" t="s">
         <v>101</v>
       </c>
@@ -4774,8 +4735,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="90" t="s">
+      <c r="U6" s="57"/>
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4786,10 +4747,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -4803,7 +4764,7 @@
         <v>67</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="66" t="s">
         <v>76</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -4812,13 +4773,13 @@
       <c r="K7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="54" t="s">
         <v>72</v>
       </c>
       <c r="M7" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="52" t="s">
         <v>70</v>
       </c>
@@ -4835,8 +4796,8 @@
         <v>99</v>
       </c>
       <c r="T7" s="27"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="91"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4845,10 +4806,10 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="50" t="s">
@@ -4862,13 +4823,13 @@
         <v>67</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L8" s="52" t="s">
@@ -4877,7 +4838,7 @@
       <c r="M8" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="52" t="s">
         <v>70</v>
       </c>
@@ -4894,8 +4855,8 @@
         <v>99</v>
       </c>
       <c r="T8" s="27"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="91"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4904,10 +4865,10 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="50" t="s">
@@ -4916,18 +4877,18 @@
       <c r="E9" s="51">
         <v>868926033934461</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="50" t="s">
         <v>67</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="54" t="s">
         <v>80</v>
       </c>
       <c r="L9" s="52" t="s">
@@ -4936,7 +4897,7 @@
       <c r="M9" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="52" t="s">
         <v>70</v>
       </c>
@@ -4952,9 +4913,9 @@
       <c r="S9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="91"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4963,10 +4924,10 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="50" t="s">
@@ -4979,21 +4940,21 @@
       <c r="G10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="70" t="s">
+      <c r="H10" s="62"/>
+      <c r="I10" s="66" t="s">
         <v>82</v>
       </c>
       <c r="J10" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="54" t="s">
         <v>83</v>
       </c>
       <c r="L10" s="52"/>
       <c r="M10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="52" t="s">
         <v>70</v>
       </c>
@@ -5009,9 +4970,9 @@
       <c r="S10" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="91"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5020,10 +4981,10 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="75" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -5041,7 +5002,7 @@
       <c r="H11" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="52" t="s">
         <v>71</v>
       </c>
@@ -5054,7 +5015,7 @@
       <c r="M11" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="52" t="s">
         <v>70</v>
       </c>
@@ -5070,9 +5031,9 @@
       <c r="S11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="91"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5081,10 +5042,10 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="50" t="s">
@@ -5097,8 +5058,8 @@
       <c r="G12" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="70" t="s">
+      <c r="H12" s="62"/>
+      <c r="I12" s="66" t="s">
         <v>103</v>
       </c>
       <c r="J12" s="52" t="s">
@@ -5113,7 +5074,7 @@
       <c r="M12" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="N12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="52" t="s">
         <v>70</v>
       </c>
@@ -5123,15 +5084,15 @@
       <c r="Q12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="54" t="s">
         <v>108</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="90" t="s">
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5142,10 +5103,10 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="50" t="s">
@@ -5163,7 +5124,7 @@
       <c r="H13" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="66" t="s">
         <v>78</v>
       </c>
       <c r="J13" s="52" t="s">
@@ -5188,15 +5149,15 @@
       <c r="Q13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R13" s="55" t="s">
+      <c r="R13" s="54" t="s">
         <v>108</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="91"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5205,10 +5166,10 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="50" t="s">
@@ -5226,13 +5187,13 @@
       <c r="H14" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="66" t="s">
         <v>103</v>
       </c>
       <c r="J14" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L14" s="52" t="s">
@@ -5251,15 +5212,15 @@
       <c r="Q14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R14" s="55" t="s">
+      <c r="R14" s="54" t="s">
         <v>108</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="91"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5268,10 +5229,10 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -5289,7 +5250,7 @@
       <c r="H15" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="66" t="s">
         <v>111</v>
       </c>
       <c r="J15" s="52" t="s">
@@ -5298,7 +5259,7 @@
       <c r="K15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="55" t="s">
+      <c r="L15" s="54" t="s">
         <v>83</v>
       </c>
       <c r="M15" s="52" t="s">
@@ -5314,15 +5275,15 @@
       <c r="Q15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="54" t="s">
         <v>108</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T15" s="61"/>
+      <c r="T15" s="57"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5331,10 +5292,10 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="75" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="50" t="s">
@@ -5347,23 +5308,23 @@
       <c r="G16" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="70" t="s">
+      <c r="H16" s="62"/>
+      <c r="I16" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J16" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="55" t="s">
+      <c r="K16" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="54" t="s">
         <v>83</v>
       </c>
       <c r="M16" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="N16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="52" t="s">
         <v>70</v>
       </c>
@@ -5373,15 +5334,15 @@
       <c r="Q16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R16" s="55" t="s">
+      <c r="R16" s="54" t="s">
         <v>108</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T16" s="61"/>
+      <c r="T16" s="57"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5407,13 +5368,13 @@
         <v>67</v>
       </c>
       <c r="H17" s="50"/>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="66" t="s">
         <v>103</v>
       </c>
       <c r="J17" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="52" t="s">
@@ -5422,7 +5383,7 @@
       <c r="M17" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="54"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="52" t="s">
         <v>70</v>
       </c>
@@ -5438,9 +5399,9 @@
       <c r="S17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T17" s="61"/>
+      <c r="T17" s="57"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="61"/>
+      <c r="V17" s="57"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5456,7 +5417,7 @@
       <c r="D18" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="55">
         <v>864811037237554</v>
       </c>
       <c r="F18" s="50"/>
@@ -5464,7 +5425,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="50"/>
-      <c r="I18" s="70" t="s">
+      <c r="I18" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J18" s="52" t="s">
@@ -5473,7 +5434,7 @@
       <c r="K18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="55" t="s">
+      <c r="L18" s="54" t="s">
         <v>83</v>
       </c>
       <c r="M18" s="52" t="s">
@@ -5495,7 +5456,7 @@
       <c r="S18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T18" s="61"/>
+      <c r="T18" s="57"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -5525,13 +5486,13 @@
       <c r="H19" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J19" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="55" t="s">
+      <c r="K19" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L19" s="52" t="s">
@@ -5556,9 +5517,9 @@
       <c r="S19" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T19" s="61"/>
+      <c r="T19" s="57"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="18" t="s">
@@ -5590,13 +5551,13 @@
       <c r="H20" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L20" s="52" t="s">
@@ -5621,7 +5582,7 @@
       <c r="S20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T20" s="61"/>
+      <c r="T20" s="57"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -5644,7 +5605,7 @@
       <c r="D21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="55">
         <v>868926033916856</v>
       </c>
       <c r="F21" s="50"/>
@@ -5652,13 +5613,13 @@
         <v>67</v>
       </c>
       <c r="H21" s="50"/>
-      <c r="I21" s="70" t="s">
+      <c r="I21" s="66" t="s">
         <v>75</v>
       </c>
       <c r="J21" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="54" t="s">
         <v>77</v>
       </c>
       <c r="L21" s="52" t="s">
@@ -5683,7 +5644,7 @@
       <c r="S21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T21" s="61"/>
+      <c r="T21" s="57"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -5714,7 +5675,7 @@
         <v>74</v>
       </c>
       <c r="H22" s="10"/>
-      <c r="I22" s="70" t="s">
+      <c r="I22" s="66" t="s">
         <v>119</v>
       </c>
       <c r="J22" s="10" t="s">
@@ -5745,7 +5706,7 @@
       <c r="S22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T22" s="61"/>
+      <c r="T22" s="57"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -5778,7 +5739,7 @@
         <v>74</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="70" t="s">
         <v>117</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -5809,7 +5770,7 @@
       <c r="S23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T23" s="61"/>
+      <c r="T23" s="57"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -5835,7 +5796,7 @@
         <v>74</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="70" t="s">
         <v>117</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -5866,7 +5827,7 @@
       <c r="S24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="61"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -5894,7 +5855,7 @@
         <v>74</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="70" t="s">
+      <c r="I25" s="66" t="s">
         <v>120</v>
       </c>
       <c r="J25" s="10" t="s">
@@ -5925,9 +5886,9 @@
       <c r="S25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="T25" s="61"/>
+      <c r="T25" s="57"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -5945,7 +5906,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -5956,7 +5917,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="61"/>
+      <c r="T26" s="57"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -5977,7 +5938,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="74"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -5988,7 +5949,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="61"/>
+      <c r="T27" s="57"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -6009,7 +5970,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="72"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -6020,7 +5981,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="61"/>
+      <c r="T28" s="57"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -6041,7 +6002,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -6052,7 +6013,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="61"/>
+      <c r="T29" s="57"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -6073,7 +6034,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="72"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -6084,7 +6045,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="61"/>
+      <c r="T30" s="57"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -6105,7 +6066,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -6116,7 +6077,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="61"/>
+      <c r="T31" s="57"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -6137,7 +6098,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="72"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -6148,7 +6109,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="61"/>
+      <c r="T32" s="57"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -6169,7 +6130,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -6180,7 +6141,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="61"/>
+      <c r="T33" s="57"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -6201,7 +6162,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="72"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -6212,7 +6173,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="61"/>
+      <c r="T34" s="57"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -6233,7 +6194,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -6244,7 +6205,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="61"/>
+      <c r="T35" s="57"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -6265,7 +6226,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="72"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -6276,7 +6237,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="61"/>
+      <c r="T36" s="57"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -6297,7 +6258,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="72"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -6308,7 +6269,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="61"/>
+      <c r="T37" s="57"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -6329,7 +6290,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="72"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -6340,7 +6301,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="61"/>
+      <c r="T38" s="57"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -6356,7 +6317,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="72"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -6367,7 +6328,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="61"/>
+      <c r="T39" s="57"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -6383,7 +6344,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="72"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -6394,7 +6355,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="61"/>
+      <c r="T40" s="57"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -6415,7 +6376,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="72"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6426,7 +6387,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="61"/>
+      <c r="T41" s="57"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -6447,7 +6408,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="72"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6458,7 +6419,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="61"/>
+      <c r="T42" s="57"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -6474,7 +6435,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="72"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -6485,7 +6446,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="61"/>
+      <c r="T43" s="57"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -6501,7 +6462,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="72"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6514,10 +6475,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6532,7 +6493,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="72"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6564,7 +6525,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="72"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6596,7 +6557,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="72"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6628,7 +6589,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="72"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -6660,7 +6621,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="72"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -6687,12 +6648,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="62"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="75"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -6701,7 +6662,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="62"/>
+      <c r="R50" s="58"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -6724,7 +6685,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="72"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -6756,7 +6717,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="76"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -6788,7 +6749,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="76"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -6820,7 +6781,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="77"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -6852,7 +6813,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="76"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -6884,7 +6845,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="76"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -6897,10 +6858,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6916,7 +6877,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="76"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -6929,8 +6890,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6943,7 +6904,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="76"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -6956,8 +6917,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6970,7 +6931,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="76"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -6997,7 +6958,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="76"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -7024,7 +6985,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="76"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -7056,7 +7017,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="76"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -7088,7 +7049,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="76"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -7115,7 +7076,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="76"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -7142,7 +7103,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="76"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -7169,7 +7130,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="76"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -7196,7 +7157,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="76"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -7226,7 +7187,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="76"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -7253,7 +7214,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="76"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -7280,7 +7241,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="76"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -7307,7 +7268,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="76"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -7334,7 +7295,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="76"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -7361,7 +7322,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="76"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -7388,7 +7349,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="76"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -7415,7 +7376,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="76"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -7442,7 +7403,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="76"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -7469,7 +7430,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="76"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -7496,7 +7457,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="76"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -7523,7 +7484,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="76"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -7550,7 +7511,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="76"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -7577,7 +7538,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="76"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -7604,7 +7565,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="76"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -7631,7 +7592,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="76"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -7658,7 +7619,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="76"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -7685,7 +7646,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="76"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -7712,7 +7673,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="76"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -7739,7 +7700,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="76"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -7766,7 +7727,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="76"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -7793,7 +7754,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="76"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -7820,7 +7781,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="76"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -7847,7 +7808,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="76"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -7874,7 +7835,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="76"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -7901,7 +7862,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="76"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -7928,7 +7889,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="76"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -7955,7 +7916,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="76"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -7982,7 +7943,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="76"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -8009,7 +7970,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="76"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -8036,7 +7997,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="76"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -8063,7 +8024,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="76"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -8090,7 +8051,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="76"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -8117,7 +8078,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="76"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -8144,7 +8105,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="76"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -8171,7 +8132,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="76"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -8198,7 +8159,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="76"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -8225,7 +8186,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="76"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -8244,6 +8205,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -8254,16 +8225,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8274,8 +8235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8288,7 +8249,7 @@
     <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="17" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="78" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="74" customWidth="1"/>
     <col min="10" max="10" width="53" style="21" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="21" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -8306,46 +8267,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
@@ -8370,7 +8331,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -8387,109 +8348,109 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="91"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="75" t="s">
         <v>131</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -8504,8 +8465,8 @@
       <c r="G6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="70" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="66" t="s">
         <v>126</v>
       </c>
       <c r="J6" s="52" t="s">
@@ -8514,11 +8475,11 @@
       <c r="K6" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="N6" s="54"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52" t="s">
         <v>122</v>
@@ -8531,8 +8492,8 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="90" t="s">
+      <c r="U6" s="85"/>
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8543,10 +8504,10 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="75" t="s">
         <v>131</v>
       </c>
       <c r="D7" s="50" t="s">
@@ -8561,19 +8522,19 @@
       <c r="G7" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="70" t="s">
+      <c r="H7" s="62"/>
+      <c r="I7" s="66" t="s">
         <v>126</v>
       </c>
       <c r="J7" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="55"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="54"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
         <v>122</v>
@@ -8586,8 +8547,8 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="91"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8596,10 +8557,10 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="75" t="s">
         <v>131</v>
       </c>
       <c r="D8" s="50" t="s">
@@ -8615,18 +8576,18 @@
         <v>74</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="66" t="s">
         <v>119</v>
       </c>
       <c r="J8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="55"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="54"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52" t="s">
         <v>122</v>
@@ -8639,66 +8600,68 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="91"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+    <row r="9" spans="1:23" s="104" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109" t="s">
+      <c r="C9" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="110">
+      <c r="E9" s="61">
         <v>866762029013982</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="109" t="s">
+      <c r="J9" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="109" t="s">
+      <c r="K9" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109" t="s">
+      <c r="L9" s="52"/>
+      <c r="M9" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="N9" s="112"/>
-      <c r="O9" s="109" t="s">
+      <c r="N9" s="53"/>
+      <c r="O9" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="P9" s="109" t="s">
+      <c r="P9" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="113" t="s">
+      <c r="Q9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="109" t="s">
+      <c r="R9" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="107"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="3" t="s">
+      <c r="S9" s="1"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8706,27 +8669,27 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="50"/>
       <c r="E10" s="51"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="54"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="50"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="91"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8735,27 +8698,27 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="50"/>
       <c r="E11" s="51"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="50"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="91"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8764,27 +8727,27 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
       <c r="H12" s="50"/>
-      <c r="I12" s="70"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="55"/>
+      <c r="L12" s="54"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="52"/>
       <c r="P12" s="52"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="50"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="90" t="s">
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8795,27 +8758,27 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="50"/>
       <c r="E13" s="51"/>
-      <c r="F13" s="66"/>
+      <c r="F13" s="62"/>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
-      <c r="I13" s="81"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="52"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="55"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="54"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="85"/>
+      <c r="N13" s="81"/>
       <c r="O13" s="52"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="50"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="91"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8824,27 +8787,27 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="50"/>
       <c r="E14" s="51"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="55"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="54"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="91"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8853,27 +8816,27 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="50"/>
       <c r="E15" s="51"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="71"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="67"/>
       <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="52"/>
       <c r="P15" s="52"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="50"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="89"/>
+      <c r="T15" s="85"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8882,27 +8845,27 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="50"/>
       <c r="E16" s="51"/>
-      <c r="F16" s="80"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="72"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="68"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="55"/>
+      <c r="L16" s="54"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="54"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="52"/>
       <c r="P16" s="52"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="50"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="89"/>
+      <c r="T16" s="85"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8911,41 +8874,41 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
-      <c r="I17" s="73"/>
+      <c r="I17" s="69"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="55"/>
+      <c r="L17" s="54"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="85"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="52"/>
       <c r="P17" s="52"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="50"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="89"/>
+      <c r="T17" s="85"/>
       <c r="U17" s="15"/>
-      <c r="V17" s="89"/>
+      <c r="V17" s="85"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="50"/>
       <c r="E18" s="51"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="72"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -8956,7 +8919,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="10"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="89"/>
+      <c r="T18" s="85"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
       <c r="W18" s="17"/>
@@ -8965,14 +8928,14 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="72"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -8983,9 +8946,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="10"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="89"/>
+      <c r="T19" s="85"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="57" t="s">
+      <c r="V19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="18" t="s">
@@ -8996,14 +8959,14 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="50"/>
       <c r="E20" s="51"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="50"/>
-      <c r="I20" s="72"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -9014,7 +8977,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="10"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="89"/>
+      <c r="T20" s="85"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
         <v>17</v>
@@ -9028,14 +8991,14 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50"/>
       <c r="E21" s="51"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="50"/>
-      <c r="I21" s="74"/>
+      <c r="I21" s="70"/>
       <c r="J21" s="1"/>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
@@ -9046,7 +9009,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="10"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="89"/>
+      <c r="T21" s="85"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
         <v>57</v>
@@ -9060,14 +9023,14 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="50"/>
       <c r="E22" s="51"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="70"/>
       <c r="J22" s="1"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -9078,7 +9041,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="10"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="89"/>
+      <c r="T22" s="85"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
         <v>58</v>
@@ -9092,14 +9055,14 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="74"/>
+      <c r="I23" s="70"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -9110,7 +9073,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="10"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="89"/>
+      <c r="T23" s="85"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
       <c r="W23" s="17"/>
@@ -9119,14 +9082,14 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="50"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -9137,7 +9100,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="10"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="89"/>
+      <c r="T24" s="85"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="17"/>
@@ -9146,14 +9109,14 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="74"/>
+      <c r="I25" s="70"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -9164,9 +9127,9 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="89"/>
+      <c r="T25" s="85"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="57" t="s">
+      <c r="V25" s="56" t="s">
         <v>54</v>
       </c>
       <c r="W25" s="18" t="s">
@@ -9184,7 +9147,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="74"/>
+      <c r="I26" s="70"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -9195,7 +9158,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="89"/>
+      <c r="T26" s="85"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
         <v>26</v>
@@ -9216,7 +9179,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="74"/>
+      <c r="I27" s="70"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -9227,7 +9190,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="10"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="89"/>
+      <c r="T27" s="85"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
         <v>34</v>
@@ -9248,7 +9211,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="72"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -9259,7 +9222,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="10"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="89"/>
+      <c r="T28" s="85"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
         <v>27</v>
@@ -9280,7 +9243,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -9291,7 +9254,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="10"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="89"/>
+      <c r="T29" s="85"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
         <v>60</v>
@@ -9312,7 +9275,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="72"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -9323,7 +9286,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="10"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="89"/>
+      <c r="T30" s="85"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
         <v>32</v>
@@ -9344,7 +9307,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="72"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -9355,7 +9318,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="10"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="89"/>
+      <c r="T31" s="85"/>
       <c r="U31" s="15"/>
       <c r="V31" s="3" t="s">
         <v>22</v>
@@ -9376,7 +9339,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="72"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -9387,7 +9350,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="10"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="89"/>
+      <c r="T32" s="85"/>
       <c r="U32" s="15"/>
       <c r="V32" s="3" t="s">
         <v>28</v>
@@ -9408,7 +9371,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="72"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -9419,7 +9382,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="10"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="89"/>
+      <c r="T33" s="85"/>
       <c r="U33" s="15"/>
       <c r="V33" s="3" t="s">
         <v>55</v>
@@ -9440,7 +9403,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="72"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -9451,7 +9414,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="10"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="89"/>
+      <c r="T34" s="85"/>
       <c r="U34" s="15"/>
       <c r="V34" s="3" t="s">
         <v>56</v>
@@ -9472,7 +9435,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -9483,7 +9446,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="10"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="89"/>
+      <c r="T35" s="85"/>
       <c r="U35" s="15"/>
       <c r="V35" s="3" t="s">
         <v>38</v>
@@ -9504,7 +9467,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="72"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -9515,7 +9478,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="10"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="89"/>
+      <c r="T36" s="85"/>
       <c r="U36" s="15"/>
       <c r="V36" s="3" t="s">
         <v>29</v>
@@ -9536,7 +9499,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="72"/>
+      <c r="I37" s="68"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -9547,7 +9510,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="10"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="89"/>
+      <c r="T37" s="85"/>
       <c r="U37" s="15"/>
       <c r="V37" s="19" t="s">
         <v>33</v>
@@ -9568,7 +9531,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="72"/>
+      <c r="I38" s="68"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -9579,7 +9542,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="89"/>
+      <c r="T38" s="85"/>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
       <c r="W38" s="17"/>
@@ -9595,7 +9558,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="72"/>
+      <c r="I39" s="68"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -9606,7 +9569,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="89"/>
+      <c r="T39" s="85"/>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
       <c r="W39" s="17"/>
@@ -9622,7 +9585,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="72"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -9633,7 +9596,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="89"/>
+      <c r="T40" s="85"/>
       <c r="U40" s="15"/>
       <c r="V40" s="19" t="s">
         <v>40</v>
@@ -9654,7 +9617,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="72"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -9665,7 +9628,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="10"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="89"/>
+      <c r="T41" s="85"/>
       <c r="U41" s="15"/>
       <c r="V41" s="19" t="s">
         <v>41</v>
@@ -9686,7 +9649,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="72"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -9697,7 +9660,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="89"/>
+      <c r="T42" s="85"/>
       <c r="U42" s="15"/>
       <c r="V42" s="15"/>
       <c r="W42" s="17"/>
@@ -9713,7 +9676,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="72"/>
+      <c r="I43" s="68"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -9724,7 +9687,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="89"/>
+      <c r="T43" s="85"/>
       <c r="U43" s="15"/>
       <c r="V43" s="15"/>
       <c r="W43" s="17"/>
@@ -9740,7 +9703,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="72"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -9753,10 +9716,10 @@
       <c r="S44" s="3"/>
       <c r="T44" s="45"/>
       <c r="U44" s="15"/>
-      <c r="V44" s="57" t="s">
+      <c r="V44" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="W44" s="57" t="s">
+      <c r="W44" s="56" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9771,7 +9734,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="72"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -9803,7 +9766,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="72"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -9835,7 +9798,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="72"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -9867,7 +9830,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="72"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -9899,7 +9862,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="72"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -9926,12 +9889,12 @@
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="88"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="34"/>
-      <c r="I50" s="75"/>
+      <c r="I50" s="71"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
@@ -9940,7 +9903,7 @@
       <c r="O50" s="34"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="31"/>
-      <c r="R50" s="88"/>
+      <c r="R50" s="84"/>
       <c r="S50" s="31"/>
       <c r="T50" s="45"/>
       <c r="U50" s="47"/>
@@ -9963,7 +9926,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="72"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -9995,7 +9958,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
-      <c r="I52" s="76"/>
+      <c r="I52" s="72"/>
       <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="36"/>
@@ -10027,7 +9990,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
-      <c r="I53" s="76"/>
+      <c r="I53" s="72"/>
       <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="36"/>
@@ -10059,7 +10022,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
-      <c r="I54" s="77"/>
+      <c r="I54" s="73"/>
       <c r="J54" s="41"/>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
@@ -10091,7 +10054,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
       <c r="H55" s="35"/>
-      <c r="I55" s="76"/>
+      <c r="I55" s="72"/>
       <c r="J55" s="35"/>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -10123,7 +10086,7 @@
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
-      <c r="I56" s="76"/>
+      <c r="I56" s="72"/>
       <c r="J56" s="35"/>
       <c r="K56" s="35"/>
       <c r="L56" s="36"/>
@@ -10136,10 +10099,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10155,7 +10118,7 @@
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
-      <c r="I57" s="76"/>
+      <c r="I57" s="72"/>
       <c r="J57" s="35"/>
       <c r="K57" s="35"/>
       <c r="L57" s="36"/>
@@ -10168,8 +10131,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -10182,7 +10145,7 @@
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
-      <c r="I58" s="76"/>
+      <c r="I58" s="72"/>
       <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="36"/>
@@ -10195,8 +10158,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10209,7 +10172,7 @@
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
-      <c r="I59" s="76"/>
+      <c r="I59" s="72"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
@@ -10236,7 +10199,7 @@
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
-      <c r="I60" s="76"/>
+      <c r="I60" s="72"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
@@ -10263,7 +10226,7 @@
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
       <c r="H61" s="35"/>
-      <c r="I61" s="76"/>
+      <c r="I61" s="72"/>
       <c r="J61" s="35"/>
       <c r="K61" s="35"/>
       <c r="L61" s="36"/>
@@ -10295,7 +10258,7 @@
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
       <c r="H62" s="35"/>
-      <c r="I62" s="76"/>
+      <c r="I62" s="72"/>
       <c r="J62" s="35"/>
       <c r="K62" s="35"/>
       <c r="L62" s="36"/>
@@ -10327,7 +10290,7 @@
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
-      <c r="I63" s="76"/>
+      <c r="I63" s="72"/>
       <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="36"/>
@@ -10354,7 +10317,7 @@
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
       <c r="H64" s="35"/>
-      <c r="I64" s="76"/>
+      <c r="I64" s="72"/>
       <c r="J64" s="35"/>
       <c r="K64" s="35"/>
       <c r="L64" s="36"/>
@@ -10381,7 +10344,7 @@
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
       <c r="H65" s="35"/>
-      <c r="I65" s="76"/>
+      <c r="I65" s="72"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
       <c r="L65" s="36"/>
@@ -10408,7 +10371,7 @@
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
       <c r="H66" s="35"/>
-      <c r="I66" s="76"/>
+      <c r="I66" s="72"/>
       <c r="J66" s="35"/>
       <c r="K66" s="35"/>
       <c r="L66" s="36"/>
@@ -10435,7 +10398,7 @@
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
-      <c r="I67" s="76"/>
+      <c r="I67" s="72"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
       <c r="L67" s="36"/>
@@ -10465,7 +10428,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
       <c r="H68" s="35"/>
-      <c r="I68" s="76"/>
+      <c r="I68" s="72"/>
       <c r="J68" s="35"/>
       <c r="K68" s="35"/>
       <c r="L68" s="36"/>
@@ -10492,7 +10455,7 @@
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
-      <c r="I69" s="76"/>
+      <c r="I69" s="72"/>
       <c r="J69" s="35"/>
       <c r="K69" s="35"/>
       <c r="L69" s="36"/>
@@ -10519,7 +10482,7 @@
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
       <c r="H70" s="35"/>
-      <c r="I70" s="76"/>
+      <c r="I70" s="72"/>
       <c r="J70" s="35"/>
       <c r="K70" s="35"/>
       <c r="L70" s="36"/>
@@ -10546,7 +10509,7 @@
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
-      <c r="I71" s="76"/>
+      <c r="I71" s="72"/>
       <c r="J71" s="35"/>
       <c r="K71" s="35"/>
       <c r="L71" s="36"/>
@@ -10573,7 +10536,7 @@
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
       <c r="H72" s="35"/>
-      <c r="I72" s="76"/>
+      <c r="I72" s="72"/>
       <c r="J72" s="35"/>
       <c r="K72" s="35"/>
       <c r="L72" s="36"/>
@@ -10600,7 +10563,7 @@
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
-      <c r="I73" s="76"/>
+      <c r="I73" s="72"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35"/>
       <c r="L73" s="36"/>
@@ -10627,7 +10590,7 @@
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
-      <c r="I74" s="76"/>
+      <c r="I74" s="72"/>
       <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -10654,7 +10617,7 @@
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
-      <c r="I75" s="76"/>
+      <c r="I75" s="72"/>
       <c r="J75" s="35"/>
       <c r="K75" s="35"/>
       <c r="L75" s="36"/>
@@ -10681,7 +10644,7 @@
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
-      <c r="I76" s="76"/>
+      <c r="I76" s="72"/>
       <c r="J76" s="35"/>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -10708,7 +10671,7 @@
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="76"/>
+      <c r="I77" s="72"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -10735,7 +10698,7 @@
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="76"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -10762,7 +10725,7 @@
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
-      <c r="I79" s="76"/>
+      <c r="I79" s="72"/>
       <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="36"/>
@@ -10789,7 +10752,7 @@
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
-      <c r="I80" s="76"/>
+      <c r="I80" s="72"/>
       <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="36"/>
@@ -10816,7 +10779,7 @@
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
-      <c r="I81" s="76"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="36"/>
@@ -10843,7 +10806,7 @@
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="76"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="35"/>
       <c r="K82" s="35"/>
       <c r="L82" s="36"/>
@@ -10870,7 +10833,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="76"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="36"/>
@@ -10897,7 +10860,7 @@
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
-      <c r="I84" s="76"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="35"/>
       <c r="K84" s="35"/>
       <c r="L84" s="36"/>
@@ -10924,7 +10887,7 @@
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
-      <c r="I85" s="76"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="35"/>
       <c r="K85" s="35"/>
       <c r="L85" s="36"/>
@@ -10951,7 +10914,7 @@
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
-      <c r="I86" s="76"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="36"/>
@@ -10978,7 +10941,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="76"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="35"/>
       <c r="K87" s="35"/>
       <c r="L87" s="36"/>
@@ -11005,7 +10968,7 @@
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="76"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="35"/>
       <c r="K88" s="35"/>
       <c r="L88" s="36"/>
@@ -11032,7 +10995,7 @@
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="76"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="35"/>
       <c r="K89" s="35"/>
       <c r="L89" s="36"/>
@@ -11059,7 +11022,7 @@
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="76"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="35"/>
       <c r="K90" s="35"/>
       <c r="L90" s="36"/>
@@ -11086,7 +11049,7 @@
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="76"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="35"/>
       <c r="K91" s="35"/>
       <c r="L91" s="36"/>
@@ -11113,7 +11076,7 @@
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="76"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="35"/>
       <c r="K92" s="35"/>
       <c r="L92" s="36"/>
@@ -11140,7 +11103,7 @@
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="76"/>
+      <c r="I93" s="72"/>
       <c r="J93" s="35"/>
       <c r="K93" s="35"/>
       <c r="L93" s="36"/>
@@ -11167,7 +11130,7 @@
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
-      <c r="I94" s="76"/>
+      <c r="I94" s="72"/>
       <c r="J94" s="35"/>
       <c r="K94" s="35"/>
       <c r="L94" s="36"/>
@@ -11194,7 +11157,7 @@
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
-      <c r="I95" s="76"/>
+      <c r="I95" s="72"/>
       <c r="J95" s="35"/>
       <c r="K95" s="35"/>
       <c r="L95" s="36"/>
@@ -11221,7 +11184,7 @@
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="76"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="35"/>
       <c r="K96" s="35"/>
       <c r="L96" s="36"/>
@@ -11248,7 +11211,7 @@
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
-      <c r="I97" s="76"/>
+      <c r="I97" s="72"/>
       <c r="J97" s="35"/>
       <c r="K97" s="35"/>
       <c r="L97" s="36"/>
@@ -11275,7 +11238,7 @@
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
       <c r="H98" s="35"/>
-      <c r="I98" s="76"/>
+      <c r="I98" s="72"/>
       <c r="J98" s="35"/>
       <c r="K98" s="35"/>
       <c r="L98" s="36"/>
@@ -11302,7 +11265,7 @@
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
-      <c r="I99" s="76"/>
+      <c r="I99" s="72"/>
       <c r="J99" s="35"/>
       <c r="K99" s="35"/>
       <c r="L99" s="36"/>
@@ -11329,7 +11292,7 @@
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
       <c r="H100" s="35"/>
-      <c r="I100" s="76"/>
+      <c r="I100" s="72"/>
       <c r="J100" s="35"/>
       <c r="K100" s="35"/>
       <c r="L100" s="36"/>
@@ -11356,7 +11319,7 @@
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
-      <c r="I101" s="76"/>
+      <c r="I101" s="72"/>
       <c r="J101" s="35"/>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -11383,7 +11346,7 @@
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
-      <c r="I102" s="76"/>
+      <c r="I102" s="72"/>
       <c r="J102" s="35"/>
       <c r="K102" s="35"/>
       <c r="L102" s="36"/>
@@ -11410,7 +11373,7 @@
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
-      <c r="I103" s="76"/>
+      <c r="I103" s="72"/>
       <c r="J103" s="35"/>
       <c r="K103" s="35"/>
       <c r="L103" s="36"/>
@@ -11437,7 +11400,7 @@
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
-      <c r="I104" s="76"/>
+      <c r="I104" s="72"/>
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
       <c r="L104" s="36"/>
@@ -11464,7 +11427,7 @@
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
-      <c r="I105" s="76"/>
+      <c r="I105" s="72"/>
       <c r="J105" s="35"/>
       <c r="K105" s="35"/>
       <c r="L105" s="36"/>
@@ -11483,6 +11446,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11493,16 +11466,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11513,8 +11476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11545,43 +11508,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11626,58 +11589,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="105" t="s">
+      <c r="L4" s="91"/>
+      <c r="M4" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="96" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="98" t="s">
+      <c r="S4" s="101" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="97" t="s">
+      <c r="W4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11702,50 +11665,78 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="99"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="B6" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="51">
+        <v>860157040204783</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="90" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11756,27 +11747,53 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="51">
+        <v>867717030421672</v>
+      </c>
       <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="G7" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="53"/>
+      <c r="O7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>97</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="91"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11785,27 +11802,53 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="51">
+        <v>868345035590553</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="G8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="53"/>
+      <c r="O8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="91"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11814,27 +11857,57 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="51">
+        <v>868926033993608</v>
+      </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="3"/>
+      <c r="G9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="53"/>
+      <c r="O9" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="91"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11843,27 +11916,57 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="51">
+        <v>869696043497242</v>
+      </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="G10" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="3"/>
+      <c r="I10" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="53"/>
+      <c r="O10" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="91"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11872,27 +11975,57 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="B11" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868926033934461</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="3"/>
+      <c r="I11" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="53"/>
+      <c r="O11" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="91"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11901,27 +12034,55 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="51">
+        <v>866192037816590</v>
+      </c>
       <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
+      <c r="G12" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="62"/>
+      <c r="I12" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>83</v>
+      </c>
       <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="3"/>
+      <c r="M12" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="53"/>
+      <c r="O12" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="90" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11932,27 +12093,59 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="3"/>
+      <c r="B13" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868926033993533</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="53"/>
+      <c r="O13" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="91"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11961,27 +12154,57 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="51">
+        <v>868926033943041</v>
+      </c>
       <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="3"/>
+      <c r="G14" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="62"/>
+      <c r="I14" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="53"/>
+      <c r="O14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="91"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11990,27 +12213,61 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="3"/>
+      <c r="B15" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="51">
+        <v>868345035622026</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="91"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12019,27 +12276,61 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868926033950558</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="3"/>
+      <c r="O16" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="92"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12048,24 +12339,58 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="3"/>
+      <c r="B17" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="51">
+        <v>864811037178451</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T17" s="29"/>
       <c r="U17" s="15"/>
       <c r="V17" s="29"/>
@@ -12075,24 +12400,54 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
+      <c r="B18" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="51">
+        <v>864811037229635</v>
+      </c>
       <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="3"/>
+      <c r="G18" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N18" s="53"/>
+      <c r="O18" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T18" s="29"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -12102,24 +12457,54 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="65"/>
+      <c r="B19" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="51">
+        <v>868926033921005</v>
+      </c>
       <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="3"/>
+      <c r="I19" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="53"/>
+      <c r="O19" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T19" s="29"/>
       <c r="U19" s="15"/>
       <c r="V19" s="4" t="s">
@@ -12133,24 +12518,54 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="55">
+        <v>864811037237554</v>
+      </c>
       <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="G20" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H20" s="50"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="3"/>
+      <c r="I20" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T20" s="29"/>
       <c r="U20" s="15"/>
       <c r="V20" s="10" t="s">
@@ -12158,31 +12573,65 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="51">
+        <v>868926033973139</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="3"/>
+      <c r="O21" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T21" s="29"/>
       <c r="U21" s="15"/>
       <c r="V21" s="10" t="s">
@@ -12190,31 +12639,65 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="3"/>
+      <c r="B22" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="51">
+        <v>869627031751175</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M22" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T22" s="29"/>
       <c r="U22" s="15"/>
       <c r="V22" s="10" t="s">
@@ -12222,31 +12705,61 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
+      <c r="B23" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="55">
+        <v>868926033916856</v>
+      </c>
       <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="52"/>
+      <c r="G23" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>105</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T23" s="29"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
@@ -12256,24 +12769,54 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="B24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="51">
+        <v>868926033912269</v>
+      </c>
       <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="3"/>
+      <c r="G24" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T24" s="29"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
@@ -12283,24 +12826,56 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="3"/>
+      <c r="B25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="51">
+        <v>868926033944700</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T25" s="29"/>
       <c r="U25" s="15"/>
       <c r="V25" s="4" t="s">
@@ -12314,24 +12889,54 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
+      <c r="B26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="51">
+        <v>868345035622000</v>
+      </c>
       <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="3"/>
+      <c r="G26" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T26" s="29"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
@@ -12346,24 +12951,56 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="3"/>
+      <c r="B27" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="51">
+        <v>869627031758667</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T27" s="29"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
@@ -12371,30 +13008,56 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="1"/>
+      <c r="B28" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="51">
+        <v>864161025125324</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="54"/>
+      <c r="M28" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="53"/>
       <c r="O28" s="52"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="10"/>
+      <c r="P28" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="S28" s="3"/>
       <c r="T28" s="29"/>
       <c r="U28" s="15"/>
@@ -12403,30 +13066,56 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="10"/>
+      <c r="B29" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="51">
+        <v>867330024399670</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="54"/>
+      <c r="M29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="53"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="29"/>
       <c r="U29" s="15"/>
@@ -12442,23 +13131,49 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="10"/>
+      <c r="B30" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="51">
+        <v>863306024480276</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="54"/>
+      <c r="M30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="53"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="50" t="s">
+        <v>25</v>
+      </c>
       <c r="S30" s="3"/>
       <c r="T30" s="29"/>
       <c r="U30" s="15"/>
@@ -12474,23 +13189,53 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="10"/>
+      <c r="B31" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="61">
+        <v>866762029013982</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="I31" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="N31" s="53"/>
+      <c r="O31" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="52" t="s">
+        <v>21</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="29"/>
       <c r="U31" s="15"/>
@@ -12499,7 +13244,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12531,7 +13276,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12595,7 +13340,7 @@
       </c>
       <c r="W34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12627,7 +13372,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12659,7 +13404,7 @@
       </c>
       <c r="W36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12691,7 +13436,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12809,7 +13554,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12958,7 +13703,7 @@
       </c>
       <c r="W46" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13022,7 +13767,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13150,7 +13895,7 @@
       </c>
       <c r="W52" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,10 +14018,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="93" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -13305,8 +14050,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="94"/>
-      <c r="W57" s="94"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -13332,8 +14077,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="95"/>
-      <c r="W58" s="95"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -13450,7 +14195,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14620,6 +15365,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14630,16 +15385,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_Lapdat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="29" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="136">
   <si>
     <t>STT</t>
   </si>
@@ -436,6 +436,15 @@
   </si>
   <si>
     <t>giữ lại bóc linh kiện</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.181101</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180115</t>
   </si>
 </sst>
 </file>
@@ -923,29 +932,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,17 +959,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,43 +1328,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="63"/>
@@ -1400,58 +1409,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -1476,24 +1485,24 @@
       <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1547,7 +1556,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="60"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1604,7 +1613,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="60"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +1642,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="60"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1662,7 +1671,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="60"/>
       <c r="U9" s="60"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1691,7 +1700,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="60"/>
       <c r="U10" s="60"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1720,7 +1729,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="60"/>
       <c r="U11" s="60"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1749,7 +1758,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
       <c r="U12" s="60"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1780,7 +1789,7 @@
       <c r="S13" s="82"/>
       <c r="T13" s="60"/>
       <c r="U13" s="60"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1809,7 +1818,7 @@
       <c r="S14" s="82"/>
       <c r="T14" s="60"/>
       <c r="U14" s="60"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1838,7 +1847,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="60"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1867,7 +1876,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="60"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3101,10 +3110,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3133,8 +3142,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3160,8 +3169,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4448,6 +4457,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4458,16 +4477,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4478,8 +4487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S25"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4510,43 +4519,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="63"/>
@@ -4591,58 +4600,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -4667,24 +4676,24 @@
       <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4736,7 +4745,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="57"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4797,7 +4806,7 @@
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="57"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4856,7 +4865,7 @@
       </c>
       <c r="T8" s="27"/>
       <c r="U8" s="57"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +4924,7 @@
       </c>
       <c r="T9" s="57"/>
       <c r="U9" s="57"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4972,7 +4981,7 @@
       </c>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5033,7 +5042,7 @@
       </c>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5092,7 +5101,7 @@
       </c>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5157,7 +5166,7 @@
       </c>
       <c r="T13" s="57"/>
       <c r="U13" s="57"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5220,7 +5229,7 @@
       </c>
       <c r="T14" s="57"/>
       <c r="U14" s="57"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5283,7 +5292,7 @@
       </c>
       <c r="T15" s="57"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5342,7 +5351,7 @@
       </c>
       <c r="T16" s="57"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5899,24 +5908,54 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="9">
+        <v>44194</v>
+      </c>
+      <c r="C26" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="11">
+        <v>868926033937076</v>
+      </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="1"/>
+      <c r="I26" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="3"/>
+      <c r="O26" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T26" s="57"/>
       <c r="U26" s="15"/>
       <c r="V26" s="3" t="s">
@@ -5931,24 +5970,54 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
+      <c r="B27" s="9">
+        <v>44194</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="11">
+        <v>864811037119877</v>
+      </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="I27" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="3"/>
+      <c r="O27" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T27" s="57"/>
       <c r="U27" s="15"/>
       <c r="V27" s="3" t="s">
@@ -5963,24 +6032,54 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="B28" s="9">
+        <v>44194</v>
+      </c>
+      <c r="C28" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="11">
+        <v>866050031761347</v>
+      </c>
       <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="3"/>
+      <c r="I28" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T28" s="57"/>
       <c r="U28" s="15"/>
       <c r="V28" s="3" t="s">
@@ -5995,24 +6094,54 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
+      <c r="B29" s="9">
+        <v>44194</v>
+      </c>
+      <c r="C29" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="11">
+        <v>868926033936714</v>
+      </c>
       <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="3"/>
+      <c r="I29" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T29" s="57"/>
       <c r="U29" s="15"/>
       <c r="V29" s="3" t="s">
@@ -6027,24 +6156,54 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
+      <c r="B30" s="9">
+        <v>44194</v>
+      </c>
+      <c r="C30" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="11">
+        <v>868345035629922</v>
+      </c>
       <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="50" t="s">
+        <v>67</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="3"/>
+      <c r="I30" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="T30" s="57"/>
       <c r="U30" s="15"/>
       <c r="V30" s="3" t="s">
@@ -6084,7 +6243,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6212,7 +6371,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6276,7 +6435,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6607,7 +6766,7 @@
       </c>
       <c r="W48" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6858,10 +7017,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6890,8 +7049,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6917,8 +7076,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -8205,6 +8364,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -8215,16 +8384,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8267,43 +8426,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="63"/>
@@ -8348,58 +8507,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
@@ -8424,24 +8583,24 @@
       <c r="I5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8493,7 +8652,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="85"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8548,7 +8707,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="85"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8601,12 +8760,12 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="85"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="104" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="87" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -8658,9 +8817,9 @@
         <v>21</v>
       </c>
       <c r="S9" s="1"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="95"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="1" t="s">
         <v>59</v>
       </c>
@@ -8689,7 +8848,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="85"/>
       <c r="U10" s="85"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8718,7 +8877,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="85"/>
       <c r="U11" s="85"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8747,7 +8906,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="85"/>
       <c r="U12" s="85"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8778,7 +8937,7 @@
       <c r="S13" s="82"/>
       <c r="T13" s="85"/>
       <c r="U13" s="85"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8807,7 +8966,7 @@
       <c r="S14" s="82"/>
       <c r="T14" s="85"/>
       <c r="U14" s="85"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8836,7 +8995,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="85"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8865,7 +9024,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="85"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10099,10 +10258,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -10131,8 +10290,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -10158,8 +10317,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11446,6 +11605,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11456,16 +11625,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11476,8 +11635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H44" sqref="A44:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11508,43 +11667,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11589,58 +11748,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="91" t="s">
+      <c r="K4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="92" t="s">
+      <c r="N4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="96" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="95" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11665,24 +11824,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11736,7 +11895,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11793,7 +11952,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="89"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11848,7 +12007,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="89"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11907,7 +12066,7 @@
       </c>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="89"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11966,7 +12125,7 @@
       </c>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="89"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12025,7 +12184,7 @@
       </c>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="89"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12082,7 +12241,7 @@
       </c>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -12145,7 +12304,7 @@
       </c>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="89"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12204,7 +12363,7 @@
       </c>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="89"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12267,7 +12426,7 @@
       </c>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="89"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12330,7 +12489,7 @@
       </c>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="90"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14018,10 +14177,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="91">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -14050,8 +14209,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -14077,8 +14236,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="93"/>
+      <c r="W58" s="93"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -15365,6 +15524,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -15375,16 +15544,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
